--- a/Concept/Car-Raci Matrix.xlsx
+++ b/Concept/Car-Raci Matrix.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aml\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -94,30 +102,46 @@
     <t>DEV/Tester</t>
   </si>
   <si>
-    <t>Tracepility Matrix</t>
+    <t>Milestone3</t>
   </si>
   <si>
-    <t>Milestone3</t>
+    <t>traceability Matrix</t>
+  </si>
+  <si>
+    <t>Implementation of Add &amp; Update Car</t>
+  </si>
+  <si>
+    <t>Implementation of Admin &amp; User home page</t>
+  </si>
+  <si>
+    <t>Implementation of Login &amp; Registeration</t>
+  </si>
+  <si>
+    <t>Implementation of Add new admin &amp; user</t>
+  </si>
+  <si>
+    <t>Aml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -128,7 +152,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -168,78 +192,84 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -429,27 +459,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.38"/>
-    <col customWidth="1" min="8" max="8" width="35.0"/>
+    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53.25" customHeight="1">
+    <row r="1" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +522,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -500,7 +533,7 @@
       <c r="F2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -523,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -546,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -569,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -592,7 +625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -613,7 +646,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -634,7 +667,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
@@ -643,9 +676,14 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -664,9 +702,14 @@
       <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11">
+      <c r="H10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -686,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -712,15 +755,15 @@
         <v>9</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -738,98 +781,196 @@
         <v>10</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="H14" s="15" t="s">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="15" t="s">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -837,7 +978,7 @@
       <c r="F23" s="17"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -845,7 +986,7 @@
       <c r="F24" s="17"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -853,7 +994,7 @@
       <c r="F25" s="17"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -861,7 +1002,7 @@
       <c r="F26" s="17"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -869,7 +1010,7 @@
       <c r="F27" s="17"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -877,7 +1018,7 @@
       <c r="F28" s="17"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -885,7 +1026,7 @@
       <c r="F29" s="17"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -893,7 +1034,7 @@
       <c r="F30" s="17"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -901,7 +1042,7 @@
       <c r="F31" s="17"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -909,7 +1050,7 @@
       <c r="F32" s="17"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -917,7 +1058,7 @@
       <c r="F33" s="17"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -925,7 +1066,7 @@
       <c r="F34" s="17"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -933,7 +1074,7 @@
       <c r="F35" s="17"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -941,7 +1082,7 @@
       <c r="F36" s="17"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -949,7 +1090,7 @@
       <c r="F37" s="17"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -957,7 +1098,7 @@
       <c r="F38" s="17"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -965,7 +1106,7 @@
       <c r="F39" s="17"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -973,7 +1114,7 @@
       <c r="F40" s="17"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -981,7 +1122,7 @@
       <c r="F41" s="17"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -989,7 +1130,7 @@
       <c r="F42" s="17"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -997,7 +1138,7 @@
       <c r="F43" s="17"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1005,7 +1146,7 @@
       <c r="F44" s="17"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -1013,7 +1154,7 @@
       <c r="F45" s="17"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -1021,7 +1162,7 @@
       <c r="F46" s="17"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -1029,7 +1170,7 @@
       <c r="F47" s="17"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -1037,7 +1178,7 @@
       <c r="F48" s="17"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -1045,7 +1186,7 @@
       <c r="F49" s="17"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -1053,7 +1194,7 @@
       <c r="F50" s="17"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -1061,7 +1202,7 @@
       <c r="F51" s="17"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -1069,7 +1210,7 @@
       <c r="F52" s="17"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -1077,7 +1218,7 @@
       <c r="F53" s="17"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -1085,7 +1226,7 @@
       <c r="F54" s="17"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -1093,7 +1234,7 @@
       <c r="F55" s="17"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -1101,7 +1242,7 @@
       <c r="F56" s="17"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -1109,7 +1250,7 @@
       <c r="F57" s="17"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -1117,7 +1258,7 @@
       <c r="F58" s="17"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -1125,7 +1266,7 @@
       <c r="F59" s="17"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -1133,7 +1274,7 @@
       <c r="F60" s="17"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -1141,7 +1282,7 @@
       <c r="F61" s="17"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -1149,7 +1290,7 @@
       <c r="F62" s="17"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -1157,7 +1298,7 @@
       <c r="F63" s="17"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -1165,7 +1306,7 @@
       <c r="F64" s="17"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -1173,7 +1314,7 @@
       <c r="F65" s="17"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -1181,7 +1322,7 @@
       <c r="F66" s="17"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -1189,7 +1330,7 @@
       <c r="F67" s="17"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -1197,7 +1338,7 @@
       <c r="F68" s="17"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -1205,7 +1346,7 @@
       <c r="F69" s="17"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -1213,7 +1354,7 @@
       <c r="F70" s="17"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -1221,7 +1362,7 @@
       <c r="F71" s="17"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -1229,7 +1370,7 @@
       <c r="F72" s="17"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1237,7 +1378,7 @@
       <c r="F73" s="17"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -1245,7 +1386,7 @@
       <c r="F74" s="17"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -1253,7 +1394,7 @@
       <c r="F75" s="17"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -1261,7 +1402,7 @@
       <c r="F76" s="17"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -1269,7 +1410,7 @@
       <c r="F77" s="17"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -1277,7 +1418,7 @@
       <c r="F78" s="17"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -1285,7 +1426,7 @@
       <c r="F79" s="17"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -1293,7 +1434,7 @@
       <c r="F80" s="17"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -1301,7 +1442,7 @@
       <c r="F81" s="17"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -1309,7 +1450,7 @@
       <c r="F82" s="17"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -1317,7 +1458,7 @@
       <c r="F83" s="17"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -1325,7 +1466,7 @@
       <c r="F84" s="17"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -1333,7 +1474,7 @@
       <c r="F85" s="17"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -1341,7 +1482,7 @@
       <c r="F86" s="17"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -1349,7 +1490,7 @@
       <c r="F87" s="17"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -1357,7 +1498,7 @@
       <c r="F88" s="17"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -1365,7 +1506,7 @@
       <c r="F89" s="17"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -1373,7 +1514,7 @@
       <c r="F90" s="17"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -1381,7 +1522,7 @@
       <c r="F91" s="17"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -1389,7 +1530,7 @@
       <c r="F92" s="17"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1397,7 +1538,7 @@
       <c r="F93" s="17"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -1405,7 +1546,7 @@
       <c r="F94" s="17"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -1413,7 +1554,7 @@
       <c r="F95" s="17"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -1421,7 +1562,7 @@
       <c r="F96" s="17"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -1429,7 +1570,7 @@
       <c r="F97" s="17"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -1437,7 +1578,7 @@
       <c r="F98" s="17"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -1445,7 +1586,7 @@
       <c r="F99" s="17"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -1453,7 +1594,7 @@
       <c r="F100" s="17"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -1461,7 +1602,7 @@
       <c r="F101" s="17"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -1469,7 +1610,7 @@
       <c r="F102" s="17"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1477,7 +1618,7 @@
       <c r="F103" s="17"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -1485,7 +1626,7 @@
       <c r="F104" s="17"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -1493,7 +1634,7 @@
       <c r="F105" s="17"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -1501,7 +1642,7 @@
       <c r="F106" s="17"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -1509,7 +1650,7 @@
       <c r="F107" s="17"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -1517,7 +1658,7 @@
       <c r="F108" s="17"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -1525,7 +1666,7 @@
       <c r="F109" s="17"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -1533,7 +1674,7 @@
       <c r="F110" s="17"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -1541,7 +1682,7 @@
       <c r="F111" s="17"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -1549,7 +1690,7 @@
       <c r="F112" s="17"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1557,7 +1698,7 @@
       <c r="F113" s="17"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -1565,7 +1706,7 @@
       <c r="F114" s="17"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -1573,7 +1714,7 @@
       <c r="F115" s="17"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -1581,7 +1722,7 @@
       <c r="F116" s="17"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -1589,7 +1730,7 @@
       <c r="F117" s="17"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -1597,7 +1738,7 @@
       <c r="F118" s="17"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -1605,7 +1746,7 @@
       <c r="F119" s="17"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -1613,7 +1754,7 @@
       <c r="F120" s="17"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -1621,7 +1762,7 @@
       <c r="F121" s="17"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -1629,7 +1770,7 @@
       <c r="F122" s="17"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1637,7 +1778,7 @@
       <c r="F123" s="17"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -1645,7 +1786,7 @@
       <c r="F124" s="17"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -1653,7 +1794,7 @@
       <c r="F125" s="17"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -1661,7 +1802,7 @@
       <c r="F126" s="17"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -1669,7 +1810,7 @@
       <c r="F127" s="17"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -1677,7 +1818,7 @@
       <c r="F128" s="17"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -1685,7 +1826,7 @@
       <c r="F129" s="17"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -1693,7 +1834,7 @@
       <c r="F130" s="17"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -1701,7 +1842,7 @@
       <c r="F131" s="17"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -1709,7 +1850,7 @@
       <c r="F132" s="17"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1717,7 +1858,7 @@
       <c r="F133" s="17"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -1725,7 +1866,7 @@
       <c r="F134" s="17"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -1733,7 +1874,7 @@
       <c r="F135" s="17"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -1741,7 +1882,7 @@
       <c r="F136" s="17"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -1749,7 +1890,7 @@
       <c r="F137" s="17"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -1757,7 +1898,7 @@
       <c r="F138" s="17"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -1765,7 +1906,7 @@
       <c r="F139" s="17"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -1773,7 +1914,7 @@
       <c r="F140" s="17"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -1781,7 +1922,7 @@
       <c r="F141" s="17"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -1789,7 +1930,7 @@
       <c r="F142" s="17"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -1797,7 +1938,7 @@
       <c r="F143" s="17"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -1805,7 +1946,7 @@
       <c r="F144" s="17"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -1813,7 +1954,7 @@
       <c r="F145" s="17"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -1821,7 +1962,7 @@
       <c r="F146" s="17"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -1829,7 +1970,7 @@
       <c r="F147" s="17"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -1837,7 +1978,7 @@
       <c r="F148" s="17"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -1845,7 +1986,7 @@
       <c r="F149" s="17"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -1853,7 +1994,7 @@
       <c r="F150" s="17"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -1861,7 +2002,7 @@
       <c r="F151" s="17"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -1869,7 +2010,7 @@
       <c r="F152" s="17"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -1877,7 +2018,7 @@
       <c r="F153" s="17"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -1885,7 +2026,7 @@
       <c r="F154" s="17"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -1893,7 +2034,7 @@
       <c r="F155" s="17"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -1901,7 +2042,7 @@
       <c r="F156" s="17"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -1909,7 +2050,7 @@
       <c r="F157" s="17"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -1917,7 +2058,7 @@
       <c r="F158" s="17"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -1925,7 +2066,7 @@
       <c r="F159" s="17"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -1933,7 +2074,7 @@
       <c r="F160" s="17"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -1941,7 +2082,7 @@
       <c r="F161" s="17"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -1949,7 +2090,7 @@
       <c r="F162" s="17"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -1957,7 +2098,7 @@
       <c r="F163" s="17"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -1965,7 +2106,7 @@
       <c r="F164" s="17"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -1973,7 +2114,7 @@
       <c r="F165" s="17"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -1981,7 +2122,7 @@
       <c r="F166" s="17"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -1989,7 +2130,7 @@
       <c r="F167" s="17"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -1997,7 +2138,7 @@
       <c r="F168" s="17"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -2005,7 +2146,7 @@
       <c r="F169" s="17"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -2013,7 +2154,7 @@
       <c r="F170" s="17"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -2021,7 +2162,7 @@
       <c r="F171" s="17"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -2029,7 +2170,7 @@
       <c r="F172" s="17"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -2037,7 +2178,7 @@
       <c r="F173" s="17"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -2045,7 +2186,7 @@
       <c r="F174" s="17"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -2053,7 +2194,7 @@
       <c r="F175" s="17"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -2061,7 +2202,7 @@
       <c r="F176" s="17"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -2069,7 +2210,7 @@
       <c r="F177" s="17"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -2077,7 +2218,7 @@
       <c r="F178" s="17"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -2085,7 +2226,7 @@
       <c r="F179" s="17"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -2093,7 +2234,7 @@
       <c r="F180" s="17"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
       <c r="D181" s="17"/>
@@ -2101,7 +2242,7 @@
       <c r="F181" s="17"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
@@ -2109,7 +2250,7 @@
       <c r="F182" s="17"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
       <c r="D183" s="17"/>
@@ -2117,7 +2258,7 @@
       <c r="F183" s="17"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
@@ -2125,7 +2266,7 @@
       <c r="F184" s="17"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
       <c r="D185" s="17"/>
@@ -2133,7 +2274,7 @@
       <c r="F185" s="17"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
       <c r="D186" s="17"/>
@@ -2141,7 +2282,7 @@
       <c r="F186" s="17"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
       <c r="D187" s="17"/>
@@ -2149,7 +2290,7 @@
       <c r="F187" s="17"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
       <c r="D188" s="17"/>
@@ -2157,7 +2298,7 @@
       <c r="F188" s="17"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
@@ -2165,7 +2306,7 @@
       <c r="F189" s="17"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
       <c r="D190" s="17"/>
@@ -2173,7 +2314,7 @@
       <c r="F190" s="17"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -2181,7 +2322,7 @@
       <c r="F191" s="17"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -2189,7 +2330,7 @@
       <c r="F192" s="17"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -2197,7 +2338,7 @@
       <c r="F193" s="17"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
       <c r="D194" s="17"/>
@@ -2205,7 +2346,7 @@
       <c r="F194" s="17"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
       <c r="D195" s="17"/>
@@ -2213,7 +2354,7 @@
       <c r="F195" s="17"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
       <c r="D196" s="17"/>
@@ -2221,7 +2362,7 @@
       <c r="F196" s="17"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
       <c r="D197" s="17"/>
@@ -2229,7 +2370,7 @@
       <c r="F197" s="17"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
@@ -2237,7 +2378,7 @@
       <c r="F198" s="17"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
@@ -2245,7 +2386,7 @@
       <c r="F199" s="17"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
       <c r="D200" s="17"/>
@@ -2253,7 +2394,7 @@
       <c r="F200" s="17"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
       <c r="D201" s="17"/>
@@ -2261,7 +2402,7 @@
       <c r="F201" s="17"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
@@ -2269,7 +2410,7 @@
       <c r="F202" s="17"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
       <c r="D203" s="17"/>
@@ -2277,7 +2418,7 @@
       <c r="F203" s="17"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
@@ -2285,7 +2426,7 @@
       <c r="F204" s="17"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
       <c r="D205" s="17"/>
@@ -2293,7 +2434,7 @@
       <c r="F205" s="17"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
       <c r="D206" s="17"/>
@@ -2301,7 +2442,7 @@
       <c r="F206" s="17"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
       <c r="D207" s="17"/>
@@ -2309,7 +2450,7 @@
       <c r="F207" s="17"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
@@ -2317,7 +2458,7 @@
       <c r="F208" s="17"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
@@ -2325,7 +2466,7 @@
       <c r="F209" s="17"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
@@ -2333,7 +2474,7 @@
       <c r="F210" s="17"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
@@ -2341,7 +2482,7 @@
       <c r="F211" s="17"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
@@ -2349,7 +2490,7 @@
       <c r="F212" s="17"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
@@ -2357,7 +2498,7 @@
       <c r="F213" s="17"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
@@ -2365,7 +2506,7 @@
       <c r="F214" s="17"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
@@ -2373,7 +2514,7 @@
       <c r="F215" s="17"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
@@ -2381,7 +2522,7 @@
       <c r="F216" s="17"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
@@ -2389,7 +2530,7 @@
       <c r="F217" s="17"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -2397,7 +2538,7 @@
       <c r="F218" s="17"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
@@ -2405,7 +2546,7 @@
       <c r="F219" s="17"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
       <c r="D220" s="17"/>
@@ -2413,7 +2554,7 @@
       <c r="F220" s="17"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
       <c r="D221" s="17"/>
@@ -2421,7 +2562,7 @@
       <c r="F221" s="17"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
@@ -2429,7 +2570,7 @@
       <c r="F222" s="17"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
       <c r="D223" s="17"/>
@@ -2437,7 +2578,7 @@
       <c r="F223" s="17"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
@@ -2445,7 +2586,7 @@
       <c r="F224" s="17"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
@@ -2453,7 +2594,7 @@
       <c r="F225" s="17"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
@@ -2461,7 +2602,7 @@
       <c r="F226" s="17"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
@@ -2469,7 +2610,7 @@
       <c r="F227" s="17"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
@@ -2477,7 +2618,7 @@
       <c r="F228" s="17"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
@@ -2485,7 +2626,7 @@
       <c r="F229" s="17"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
       <c r="D230" s="17"/>
@@ -2493,7 +2634,7 @@
       <c r="F230" s="17"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
       <c r="D231" s="17"/>
@@ -2501,7 +2642,7 @@
       <c r="F231" s="17"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
       <c r="D232" s="17"/>
@@ -2509,7 +2650,7 @@
       <c r="F232" s="17"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
       <c r="D233" s="17"/>
@@ -2517,7 +2658,7 @@
       <c r="F233" s="17"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
       <c r="D234" s="17"/>
@@ -2525,7 +2666,7 @@
       <c r="F234" s="17"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
       <c r="D235" s="17"/>
@@ -2533,7 +2674,7 @@
       <c r="F235" s="17"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
       <c r="D236" s="17"/>
@@ -2541,7 +2682,7 @@
       <c r="F236" s="17"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
       <c r="D237" s="17"/>
@@ -2549,7 +2690,7 @@
       <c r="F237" s="17"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
@@ -2557,7 +2698,7 @@
       <c r="F238" s="17"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
@@ -2565,7 +2706,7 @@
       <c r="F239" s="17"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
@@ -2573,7 +2714,7 @@
       <c r="F240" s="17"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
       <c r="D241" s="17"/>
@@ -2581,7 +2722,7 @@
       <c r="F241" s="17"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -2589,7 +2730,7 @@
       <c r="F242" s="17"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
@@ -2597,7 +2738,7 @@
       <c r="F243" s="17"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
       <c r="D244" s="17"/>
@@ -2605,7 +2746,7 @@
       <c r="F244" s="17"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
       <c r="D245" s="17"/>
@@ -2613,7 +2754,7 @@
       <c r="F245" s="17"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
@@ -2621,7 +2762,7 @@
       <c r="F246" s="17"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
@@ -2629,7 +2770,7 @@
       <c r="F247" s="17"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
@@ -2637,7 +2778,7 @@
       <c r="F248" s="17"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
@@ -2645,7 +2786,7 @@
       <c r="F249" s="17"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
@@ -2653,7 +2794,7 @@
       <c r="F250" s="17"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
       <c r="D251" s="17"/>
@@ -2661,7 +2802,7 @@
       <c r="F251" s="17"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
       <c r="D252" s="17"/>
@@ -2669,7 +2810,7 @@
       <c r="F252" s="17"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
       <c r="D253" s="17"/>
@@ -2677,7 +2818,7 @@
       <c r="F253" s="17"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
       <c r="D254" s="17"/>
@@ -2685,7 +2826,7 @@
       <c r="F254" s="17"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
@@ -2693,7 +2834,7 @@
       <c r="F255" s="17"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
@@ -2701,7 +2842,7 @@
       <c r="F256" s="17"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
       <c r="D257" s="17"/>
@@ -2709,7 +2850,7 @@
       <c r="F257" s="17"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
       <c r="D258" s="17"/>
@@ -2717,7 +2858,7 @@
       <c r="F258" s="17"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
       <c r="D259" s="17"/>
@@ -2725,7 +2866,7 @@
       <c r="F259" s="17"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
@@ -2733,7 +2874,7 @@
       <c r="F260" s="17"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
@@ -2741,7 +2882,7 @@
       <c r="F261" s="17"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
       <c r="D262" s="17"/>
@@ -2749,7 +2890,7 @@
       <c r="F262" s="17"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
       <c r="D263" s="17"/>
@@ -2757,7 +2898,7 @@
       <c r="F263" s="17"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
       <c r="D264" s="17"/>
@@ -2765,7 +2906,7 @@
       <c r="F264" s="17"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
       <c r="D265" s="17"/>
@@ -2773,7 +2914,7 @@
       <c r="F265" s="17"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
       <c r="D266" s="17"/>
@@ -2781,7 +2922,7 @@
       <c r="F266" s="17"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
       <c r="D267" s="17"/>
@@ -2789,7 +2930,7 @@
       <c r="F267" s="17"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
       <c r="D268" s="17"/>
@@ -2797,7 +2938,7 @@
       <c r="F268" s="17"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
       <c r="D269" s="17"/>
@@ -2805,7 +2946,7 @@
       <c r="F269" s="17"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
       <c r="D270" s="17"/>
@@ -2813,7 +2954,7 @@
       <c r="F270" s="17"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
       <c r="D271" s="17"/>
@@ -2821,7 +2962,7 @@
       <c r="F271" s="17"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
       <c r="D272" s="17"/>
@@ -2829,7 +2970,7 @@
       <c r="F272" s="17"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
       <c r="D273" s="17"/>
@@ -2837,7 +2978,7 @@
       <c r="F273" s="17"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
       <c r="D274" s="17"/>
@@ -2845,7 +2986,7 @@
       <c r="F274" s="17"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
       <c r="D275" s="17"/>
@@ -2853,7 +2994,7 @@
       <c r="F275" s="17"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
       <c r="D276" s="17"/>
@@ -2861,7 +3002,7 @@
       <c r="F276" s="17"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
       <c r="D277" s="17"/>
@@ -2869,7 +3010,7 @@
       <c r="F277" s="17"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
       <c r="D278" s="17"/>
@@ -2877,7 +3018,7 @@
       <c r="F278" s="17"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
       <c r="D279" s="17"/>
@@ -2885,7 +3026,7 @@
       <c r="F279" s="17"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
       <c r="D280" s="17"/>
@@ -2893,7 +3034,7 @@
       <c r="F280" s="17"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
       <c r="D281" s="17"/>
@@ -2901,7 +3042,7 @@
       <c r="F281" s="17"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
       <c r="D282" s="17"/>
@@ -2909,7 +3050,7 @@
       <c r="F282" s="17"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
       <c r="D283" s="17"/>
@@ -2917,7 +3058,7 @@
       <c r="F283" s="17"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
       <c r="D284" s="17"/>
@@ -2925,7 +3066,7 @@
       <c r="F284" s="17"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
       <c r="D285" s="17"/>
@@ -2933,7 +3074,7 @@
       <c r="F285" s="17"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
       <c r="D286" s="17"/>
@@ -2941,7 +3082,7 @@
       <c r="F286" s="17"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
       <c r="D287" s="17"/>
@@ -2949,7 +3090,7 @@
       <c r="F287" s="17"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
       <c r="D288" s="17"/>
@@ -2957,7 +3098,7 @@
       <c r="F288" s="17"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
       <c r="D289" s="17"/>
@@ -2965,7 +3106,7 @@
       <c r="F289" s="17"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
       <c r="D290" s="17"/>
@@ -2973,7 +3114,7 @@
       <c r="F290" s="17"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
       <c r="D291" s="17"/>
@@ -2981,7 +3122,7 @@
       <c r="F291" s="17"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
       <c r="D292" s="17"/>
@@ -2989,7 +3130,7 @@
       <c r="F292" s="17"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
       <c r="D293" s="17"/>
@@ -2997,7 +3138,7 @@
       <c r="F293" s="17"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
       <c r="D294" s="17"/>
@@ -3005,7 +3146,7 @@
       <c r="F294" s="17"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
       <c r="D295" s="17"/>
@@ -3013,7 +3154,7 @@
       <c r="F295" s="17"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
       <c r="D296" s="17"/>
@@ -3021,7 +3162,7 @@
       <c r="F296" s="17"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
       <c r="D297" s="17"/>
@@ -3029,7 +3170,7 @@
       <c r="F297" s="17"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
       <c r="D298" s="17"/>
@@ -3037,7 +3178,7 @@
       <c r="F298" s="17"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
       <c r="D299" s="17"/>
@@ -3045,7 +3186,7 @@
       <c r="F299" s="17"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
       <c r="D300" s="17"/>
@@ -3053,7 +3194,7 @@
       <c r="F300" s="17"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
       <c r="D301" s="17"/>
@@ -3061,7 +3202,7 @@
       <c r="F301" s="17"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
       <c r="D302" s="17"/>
@@ -3069,7 +3210,7 @@
       <c r="F302" s="17"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
       <c r="D303" s="17"/>
@@ -3077,7 +3218,7 @@
       <c r="F303" s="17"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
       <c r="D304" s="17"/>
@@ -3085,7 +3226,7 @@
       <c r="F304" s="17"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
       <c r="D305" s="17"/>
@@ -3093,7 +3234,7 @@
       <c r="F305" s="17"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
       <c r="D306" s="17"/>
@@ -3101,7 +3242,7 @@
       <c r="F306" s="17"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
       <c r="D307" s="17"/>
@@ -3109,7 +3250,7 @@
       <c r="F307" s="17"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
       <c r="D308" s="17"/>
@@ -3117,7 +3258,7 @@
       <c r="F308" s="17"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
       <c r="D309" s="17"/>
@@ -3125,7 +3266,7 @@
       <c r="F309" s="17"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
       <c r="D310" s="17"/>
@@ -3133,7 +3274,7 @@
       <c r="F310" s="17"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
       <c r="D311" s="17"/>
@@ -3141,7 +3282,7 @@
       <c r="F311" s="17"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
       <c r="D312" s="17"/>
@@ -3149,7 +3290,7 @@
       <c r="F312" s="17"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
       <c r="D313" s="17"/>
@@ -3157,7 +3298,7 @@
       <c r="F313" s="17"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
       <c r="D314" s="17"/>
@@ -3165,7 +3306,7 @@
       <c r="F314" s="17"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
       <c r="D315" s="17"/>
@@ -3173,7 +3314,7 @@
       <c r="F315" s="17"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
       <c r="D316" s="17"/>
@@ -3181,7 +3322,7 @@
       <c r="F316" s="17"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
       <c r="D317" s="17"/>
@@ -3189,7 +3330,7 @@
       <c r="F317" s="17"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
       <c r="D318" s="17"/>
@@ -3197,7 +3338,7 @@
       <c r="F318" s="17"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
       <c r="D319" s="17"/>
@@ -3205,7 +3346,7 @@
       <c r="F319" s="17"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
       <c r="D320" s="17"/>
@@ -3213,7 +3354,7 @@
       <c r="F320" s="17"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
       <c r="D321" s="17"/>
@@ -3221,7 +3362,7 @@
       <c r="F321" s="17"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
       <c r="D322" s="17"/>
@@ -3229,7 +3370,7 @@
       <c r="F322" s="17"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
       <c r="D323" s="17"/>
@@ -3237,7 +3378,7 @@
       <c r="F323" s="17"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
       <c r="D324" s="17"/>
@@ -3245,7 +3386,7 @@
       <c r="F324" s="17"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
       <c r="D325" s="17"/>
@@ -3253,7 +3394,7 @@
       <c r="F325" s="17"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
       <c r="D326" s="17"/>
@@ -3261,7 +3402,7 @@
       <c r="F326" s="17"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
       <c r="D327" s="17"/>
@@ -3269,7 +3410,7 @@
       <c r="F327" s="17"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
       <c r="D328" s="17"/>
@@ -3277,7 +3418,7 @@
       <c r="F328" s="17"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
       <c r="D329" s="17"/>
@@ -3285,7 +3426,7 @@
       <c r="F329" s="17"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
       <c r="D330" s="17"/>
@@ -3293,7 +3434,7 @@
       <c r="F330" s="17"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
       <c r="D331" s="17"/>
@@ -3301,7 +3442,7 @@
       <c r="F331" s="17"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
       <c r="D332" s="17"/>
@@ -3309,7 +3450,7 @@
       <c r="F332" s="17"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
       <c r="D333" s="17"/>
@@ -3317,7 +3458,7 @@
       <c r="F333" s="17"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
       <c r="D334" s="17"/>
@@ -3325,7 +3466,7 @@
       <c r="F334" s="17"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
       <c r="D335" s="17"/>
@@ -3333,7 +3474,7 @@
       <c r="F335" s="17"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
@@ -3341,7 +3482,7 @@
       <c r="F336" s="17"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
       <c r="D337" s="17"/>
@@ -3349,7 +3490,7 @@
       <c r="F337" s="17"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
       <c r="D338" s="17"/>
@@ -3357,7 +3498,7 @@
       <c r="F338" s="17"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
       <c r="D339" s="17"/>
@@ -3365,7 +3506,7 @@
       <c r="F339" s="17"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
       <c r="D340" s="17"/>
@@ -3373,7 +3514,7 @@
       <c r="F340" s="17"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
       <c r="D341" s="17"/>
@@ -3381,7 +3522,7 @@
       <c r="F341" s="17"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
       <c r="D342" s="17"/>
@@ -3389,7 +3530,7 @@
       <c r="F342" s="17"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
       <c r="D343" s="17"/>
@@ -3397,7 +3538,7 @@
       <c r="F343" s="17"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
       <c r="D344" s="17"/>
@@ -3405,7 +3546,7 @@
       <c r="F344" s="17"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
       <c r="D345" s="17"/>
@@ -3413,7 +3554,7 @@
       <c r="F345" s="17"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
       <c r="D346" s="17"/>
@@ -3421,7 +3562,7 @@
       <c r="F346" s="17"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
       <c r="D347" s="17"/>
@@ -3429,7 +3570,7 @@
       <c r="F347" s="17"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
       <c r="D348" s="17"/>
@@ -3437,7 +3578,7 @@
       <c r="F348" s="17"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
       <c r="D349" s="17"/>
@@ -3445,7 +3586,7 @@
       <c r="F349" s="17"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
       <c r="D350" s="17"/>
@@ -3453,7 +3594,7 @@
       <c r="F350" s="17"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
       <c r="D351" s="17"/>
@@ -3461,7 +3602,7 @@
       <c r="F351" s="17"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
       <c r="D352" s="17"/>
@@ -3469,7 +3610,7 @@
       <c r="F352" s="17"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
       <c r="D353" s="17"/>
@@ -3477,7 +3618,7 @@
       <c r="F353" s="17"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
       <c r="D354" s="17"/>
@@ -3485,7 +3626,7 @@
       <c r="F354" s="17"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
       <c r="D355" s="17"/>
@@ -3493,7 +3634,7 @@
       <c r="F355" s="17"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
       <c r="D356" s="17"/>
@@ -3501,7 +3642,7 @@
       <c r="F356" s="17"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
       <c r="D357" s="17"/>
@@ -3509,7 +3650,7 @@
       <c r="F357" s="17"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
       <c r="D358" s="17"/>
@@ -3517,7 +3658,7 @@
       <c r="F358" s="17"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
       <c r="D359" s="17"/>
@@ -3525,7 +3666,7 @@
       <c r="F359" s="17"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
       <c r="D360" s="17"/>
@@ -3533,7 +3674,7 @@
       <c r="F360" s="17"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
       <c r="D361" s="17"/>
@@ -3541,7 +3682,7 @@
       <c r="F361" s="17"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
       <c r="D362" s="17"/>
@@ -3549,7 +3690,7 @@
       <c r="F362" s="17"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
       <c r="D363" s="17"/>
@@ -3557,7 +3698,7 @@
       <c r="F363" s="17"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
       <c r="D364" s="17"/>
@@ -3565,7 +3706,7 @@
       <c r="F364" s="17"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
       <c r="D365" s="17"/>
@@ -3573,7 +3714,7 @@
       <c r="F365" s="17"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
       <c r="D366" s="17"/>
@@ -3581,7 +3722,7 @@
       <c r="F366" s="17"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
       <c r="D367" s="17"/>
@@ -3589,7 +3730,7 @@
       <c r="F367" s="17"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
       <c r="D368" s="17"/>
@@ -3597,7 +3738,7 @@
       <c r="F368" s="17"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
       <c r="D369" s="17"/>
@@ -3605,7 +3746,7 @@
       <c r="F369" s="17"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
       <c r="D370" s="17"/>
@@ -3613,7 +3754,7 @@
       <c r="F370" s="17"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
       <c r="D371" s="17"/>
@@ -3621,7 +3762,7 @@
       <c r="F371" s="17"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
       <c r="D372" s="17"/>
@@ -3629,7 +3770,7 @@
       <c r="F372" s="17"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
       <c r="D373" s="17"/>
@@ -3637,7 +3778,7 @@
       <c r="F373" s="17"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
       <c r="D374" s="17"/>
@@ -3645,7 +3786,7 @@
       <c r="F374" s="17"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
@@ -3653,7 +3794,7 @@
       <c r="F375" s="17"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
       <c r="D376" s="17"/>
@@ -3661,7 +3802,7 @@
       <c r="F376" s="17"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
@@ -3669,7 +3810,7 @@
       <c r="F377" s="17"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
       <c r="D378" s="17"/>
@@ -3677,7 +3818,7 @@
       <c r="F378" s="17"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
       <c r="D379" s="17"/>
@@ -3685,7 +3826,7 @@
       <c r="F379" s="17"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
       <c r="D380" s="17"/>
@@ -3693,7 +3834,7 @@
       <c r="F380" s="17"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
       <c r="D381" s="17"/>
@@ -3701,7 +3842,7 @@
       <c r="F381" s="17"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
       <c r="D382" s="17"/>
@@ -3709,7 +3850,7 @@
       <c r="F382" s="17"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
       <c r="D383" s="17"/>
@@ -3717,7 +3858,7 @@
       <c r="F383" s="17"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
       <c r="D384" s="17"/>
@@ -3725,7 +3866,7 @@
       <c r="F384" s="17"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
       <c r="D385" s="17"/>
@@ -3733,7 +3874,7 @@
       <c r="F385" s="17"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
       <c r="D386" s="17"/>
@@ -3741,7 +3882,7 @@
       <c r="F386" s="17"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
       <c r="D387" s="17"/>
@@ -3749,7 +3890,7 @@
       <c r="F387" s="17"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
       <c r="D388" s="17"/>
@@ -3757,7 +3898,7 @@
       <c r="F388" s="17"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
       <c r="D389" s="17"/>
@@ -3765,7 +3906,7 @@
       <c r="F389" s="17"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
       <c r="D390" s="17"/>
@@ -3773,7 +3914,7 @@
       <c r="F390" s="17"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
       <c r="D391" s="17"/>
@@ -3781,7 +3922,7 @@
       <c r="F391" s="17"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
       <c r="D392" s="17"/>
@@ -3789,7 +3930,7 @@
       <c r="F392" s="17"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
       <c r="D393" s="17"/>
@@ -3797,7 +3938,7 @@
       <c r="F393" s="17"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
       <c r="D394" s="17"/>
@@ -3805,7 +3946,7 @@
       <c r="F394" s="17"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
       <c r="D395" s="17"/>
@@ -3813,7 +3954,7 @@
       <c r="F395" s="17"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
       <c r="D396" s="17"/>
@@ -3821,7 +3962,7 @@
       <c r="F396" s="17"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
       <c r="D397" s="17"/>
@@ -3829,7 +3970,7 @@
       <c r="F397" s="17"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
       <c r="D398" s="17"/>
@@ -3837,7 +3978,7 @@
       <c r="F398" s="17"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
       <c r="D399" s="17"/>
@@ -3845,7 +3986,7 @@
       <c r="F399" s="17"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
       <c r="D400" s="17"/>
@@ -3853,7 +3994,7 @@
       <c r="F400" s="17"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
       <c r="D401" s="17"/>
@@ -3861,7 +4002,7 @@
       <c r="F401" s="17"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
       <c r="D402" s="17"/>
@@ -3869,7 +4010,7 @@
       <c r="F402" s="17"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
       <c r="D403" s="17"/>
@@ -3877,7 +4018,7 @@
       <c r="F403" s="17"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
       <c r="D404" s="17"/>
@@ -3885,7 +4026,7 @@
       <c r="F404" s="17"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
       <c r="D405" s="17"/>
@@ -3893,7 +4034,7 @@
       <c r="F405" s="17"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
       <c r="D406" s="17"/>
@@ -3901,7 +4042,7 @@
       <c r="F406" s="17"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
       <c r="D407" s="17"/>
@@ -3909,7 +4050,7 @@
       <c r="F407" s="17"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
       <c r="D408" s="17"/>
@@ -3917,7 +4058,7 @@
       <c r="F408" s="17"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
       <c r="D409" s="17"/>
@@ -3925,7 +4066,7 @@
       <c r="F409" s="17"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
       <c r="D410" s="17"/>
@@ -3933,7 +4074,7 @@
       <c r="F410" s="17"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
       <c r="D411" s="17"/>
@@ -3941,7 +4082,7 @@
       <c r="F411" s="17"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
       <c r="D412" s="17"/>
@@ -3949,7 +4090,7 @@
       <c r="F412" s="17"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
       <c r="D413" s="17"/>
@@ -3957,7 +4098,7 @@
       <c r="F413" s="17"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
@@ -3965,7 +4106,7 @@
       <c r="F414" s="17"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
       <c r="D415" s="17"/>
@@ -3973,7 +4114,7 @@
       <c r="F415" s="17"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
@@ -3981,7 +4122,7 @@
       <c r="F416" s="17"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
       <c r="D417" s="17"/>
@@ -3989,7 +4130,7 @@
       <c r="F417" s="17"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
       <c r="D418" s="17"/>
@@ -3997,7 +4138,7 @@
       <c r="F418" s="17"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
       <c r="D419" s="17"/>
@@ -4005,7 +4146,7 @@
       <c r="F419" s="17"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
       <c r="D420" s="17"/>
@@ -4013,7 +4154,7 @@
       <c r="F420" s="17"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
       <c r="D421" s="17"/>
@@ -4021,7 +4162,7 @@
       <c r="F421" s="17"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
       <c r="D422" s="17"/>
@@ -4029,7 +4170,7 @@
       <c r="F422" s="17"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
       <c r="D423" s="17"/>
@@ -4037,7 +4178,7 @@
       <c r="F423" s="17"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
       <c r="D424" s="17"/>
@@ -4045,7 +4186,7 @@
       <c r="F424" s="17"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
       <c r="D425" s="17"/>
@@ -4053,7 +4194,7 @@
       <c r="F425" s="17"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
       <c r="D426" s="17"/>
@@ -4061,7 +4202,7 @@
       <c r="F426" s="17"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
       <c r="D427" s="17"/>
@@ -4069,7 +4210,7 @@
       <c r="F427" s="17"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
       <c r="D428" s="17"/>
@@ -4077,7 +4218,7 @@
       <c r="F428" s="17"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
       <c r="D429" s="17"/>
@@ -4085,7 +4226,7 @@
       <c r="F429" s="17"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
       <c r="D430" s="17"/>
@@ -4093,7 +4234,7 @@
       <c r="F430" s="17"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
       <c r="D431" s="17"/>
@@ -4101,7 +4242,7 @@
       <c r="F431" s="17"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
       <c r="D432" s="17"/>
@@ -4109,7 +4250,7 @@
       <c r="F432" s="17"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
       <c r="D433" s="17"/>
@@ -4117,7 +4258,7 @@
       <c r="F433" s="17"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
       <c r="D434" s="17"/>
@@ -4125,7 +4266,7 @@
       <c r="F434" s="17"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
       <c r="D435" s="17"/>
@@ -4133,7 +4274,7 @@
       <c r="F435" s="17"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
       <c r="D436" s="17"/>
@@ -4141,7 +4282,7 @@
       <c r="F436" s="17"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
       <c r="D437" s="17"/>
@@ -4149,7 +4290,7 @@
       <c r="F437" s="17"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
       <c r="D438" s="17"/>
@@ -4157,7 +4298,7 @@
       <c r="F438" s="17"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
       <c r="D439" s="17"/>
@@ -4165,7 +4306,7 @@
       <c r="F439" s="17"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
       <c r="D440" s="17"/>
@@ -4173,7 +4314,7 @@
       <c r="F440" s="17"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
       <c r="D441" s="17"/>
@@ -4181,7 +4322,7 @@
       <c r="F441" s="17"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
       <c r="D442" s="17"/>
@@ -4189,7 +4330,7 @@
       <c r="F442" s="17"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
       <c r="D443" s="17"/>
@@ -4197,7 +4338,7 @@
       <c r="F443" s="17"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
       <c r="D444" s="17"/>
@@ -4205,7 +4346,7 @@
       <c r="F444" s="17"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
       <c r="D445" s="17"/>
@@ -4213,7 +4354,7 @@
       <c r="F445" s="17"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
       <c r="D446" s="17"/>
@@ -4221,7 +4362,7 @@
       <c r="F446" s="17"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
       <c r="D447" s="17"/>
@@ -4229,7 +4370,7 @@
       <c r="F447" s="17"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
       <c r="D448" s="17"/>
@@ -4237,7 +4378,7 @@
       <c r="F448" s="17"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
       <c r="D449" s="17"/>
@@ -4245,7 +4386,7 @@
       <c r="F449" s="17"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
       <c r="D450" s="17"/>
@@ -4253,7 +4394,7 @@
       <c r="F450" s="17"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
       <c r="D451" s="17"/>
@@ -4261,7 +4402,7 @@
       <c r="F451" s="17"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
       <c r="D452" s="17"/>
@@ -4269,7 +4410,7 @@
       <c r="F452" s="17"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
       <c r="D453" s="17"/>
@@ -4277,7 +4418,7 @@
       <c r="F453" s="17"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
       <c r="D454" s="17"/>
@@ -4285,7 +4426,7 @@
       <c r="F454" s="17"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
       <c r="D455" s="17"/>
@@ -4293,7 +4434,7 @@
       <c r="F455" s="17"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
       <c r="D456" s="17"/>
@@ -4301,7 +4442,7 @@
       <c r="F456" s="17"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
       <c r="D457" s="17"/>
@@ -4309,7 +4450,7 @@
       <c r="F457" s="17"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
       <c r="D458" s="17"/>
@@ -4317,7 +4458,7 @@
       <c r="F458" s="17"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
       <c r="D459" s="17"/>
@@ -4325,7 +4466,7 @@
       <c r="F459" s="17"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
       <c r="D460" s="17"/>
@@ -4333,7 +4474,7 @@
       <c r="F460" s="17"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
       <c r="D461" s="17"/>
@@ -4341,7 +4482,7 @@
       <c r="F461" s="17"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
       <c r="D462" s="17"/>
@@ -4349,7 +4490,7 @@
       <c r="F462" s="17"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
       <c r="D463" s="17"/>
@@ -4357,7 +4498,7 @@
       <c r="F463" s="17"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
       <c r="D464" s="17"/>
@@ -4365,7 +4506,7 @@
       <c r="F464" s="17"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
       <c r="D465" s="17"/>
@@ -4373,7 +4514,7 @@
       <c r="F465" s="17"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
       <c r="D466" s="17"/>
@@ -4381,7 +4522,7 @@
       <c r="F466" s="17"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
       <c r="D467" s="17"/>
@@ -4389,7 +4530,7 @@
       <c r="F467" s="17"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
       <c r="D468" s="17"/>
@@ -4397,7 +4538,7 @@
       <c r="F468" s="17"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
       <c r="D469" s="17"/>
@@ -4405,7 +4546,7 @@
       <c r="F469" s="17"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
       <c r="D470" s="17"/>
@@ -4413,7 +4554,7 @@
       <c r="F470" s="17"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
       <c r="D471" s="17"/>
@@ -4421,7 +4562,7 @@
       <c r="F471" s="17"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
       <c r="D472" s="17"/>
@@ -4429,7 +4570,7 @@
       <c r="F472" s="17"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
       <c r="D473" s="17"/>
@@ -4437,7 +4578,7 @@
       <c r="F473" s="17"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
       <c r="D474" s="17"/>
@@ -4445,7 +4586,7 @@
       <c r="F474" s="17"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
       <c r="D475" s="17"/>
@@ -4453,7 +4594,7 @@
       <c r="F475" s="17"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
       <c r="D476" s="17"/>
@@ -4461,7 +4602,7 @@
       <c r="F476" s="17"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
       <c r="D477" s="17"/>
@@ -4469,7 +4610,7 @@
       <c r="F477" s="17"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
       <c r="D478" s="17"/>
@@ -4477,7 +4618,7 @@
       <c r="F478" s="17"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
       <c r="D479" s="17"/>
@@ -4485,7 +4626,7 @@
       <c r="F479" s="17"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
       <c r="D480" s="17"/>
@@ -4493,7 +4634,7 @@
       <c r="F480" s="17"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
       <c r="D481" s="17"/>
@@ -4501,7 +4642,7 @@
       <c r="F481" s="17"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
       <c r="D482" s="17"/>
@@ -4509,7 +4650,7 @@
       <c r="F482" s="17"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
       <c r="D483" s="17"/>
@@ -4517,7 +4658,7 @@
       <c r="F483" s="17"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
       <c r="D484" s="17"/>
@@ -4525,7 +4666,7 @@
       <c r="F484" s="17"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
       <c r="D485" s="17"/>
@@ -4533,7 +4674,7 @@
       <c r="F485" s="17"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
       <c r="D486" s="17"/>
@@ -4541,7 +4682,7 @@
       <c r="F486" s="17"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
       <c r="D487" s="17"/>
@@ -4549,7 +4690,7 @@
       <c r="F487" s="17"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
       <c r="D488" s="17"/>
@@ -4557,7 +4698,7 @@
       <c r="F488" s="17"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
       <c r="D489" s="17"/>
@@ -4565,7 +4706,7 @@
       <c r="F489" s="17"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
       <c r="D490" s="17"/>
@@ -4573,7 +4714,7 @@
       <c r="F490" s="17"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
       <c r="D491" s="17"/>
@@ -4581,7 +4722,7 @@
       <c r="F491" s="17"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
       <c r="D492" s="17"/>
@@ -4589,7 +4730,7 @@
       <c r="F492" s="17"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
@@ -4597,7 +4738,7 @@
       <c r="F493" s="17"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
       <c r="D494" s="17"/>
@@ -4605,7 +4746,7 @@
       <c r="F494" s="17"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
       <c r="D495" s="17"/>
@@ -4613,7 +4754,7 @@
       <c r="F495" s="17"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
       <c r="D496" s="17"/>
@@ -4621,7 +4762,7 @@
       <c r="F496" s="17"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
       <c r="D497" s="17"/>
@@ -4629,7 +4770,7 @@
       <c r="F497" s="17"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
       <c r="D498" s="17"/>
@@ -4637,7 +4778,7 @@
       <c r="F498" s="17"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
       <c r="D499" s="17"/>
@@ -4645,7 +4786,7 @@
       <c r="F499" s="17"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
       <c r="D500" s="17"/>
@@ -4653,7 +4794,7 @@
       <c r="F500" s="17"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
       <c r="D501" s="17"/>
@@ -4661,7 +4802,7 @@
       <c r="F501" s="17"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
       <c r="D502" s="17"/>
@@ -4669,7 +4810,7 @@
       <c r="F502" s="17"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
       <c r="D503" s="17"/>
@@ -4677,7 +4818,7 @@
       <c r="F503" s="17"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
       <c r="D504" s="17"/>
@@ -4685,7 +4826,7 @@
       <c r="F504" s="17"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
       <c r="D505" s="17"/>
@@ -4693,7 +4834,7 @@
       <c r="F505" s="17"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
       <c r="D506" s="17"/>
@@ -4701,7 +4842,7 @@
       <c r="F506" s="17"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
       <c r="D507" s="17"/>
@@ -4709,7 +4850,7 @@
       <c r="F507" s="17"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
       <c r="D508" s="17"/>
@@ -4717,7 +4858,7 @@
       <c r="F508" s="17"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
       <c r="D509" s="17"/>
@@ -4725,7 +4866,7 @@
       <c r="F509" s="17"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
       <c r="D510" s="17"/>
@@ -4733,7 +4874,7 @@
       <c r="F510" s="17"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
       <c r="D511" s="17"/>
@@ -4741,7 +4882,7 @@
       <c r="F511" s="17"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
       <c r="D512" s="17"/>
@@ -4749,7 +4890,7 @@
       <c r="F512" s="17"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
       <c r="D513" s="17"/>
@@ -4757,7 +4898,7 @@
       <c r="F513" s="17"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
       <c r="D514" s="17"/>
@@ -4765,7 +4906,7 @@
       <c r="F514" s="17"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
       <c r="D515" s="17"/>
@@ -4773,7 +4914,7 @@
       <c r="F515" s="17"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
       <c r="D516" s="17"/>
@@ -4781,7 +4922,7 @@
       <c r="F516" s="17"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
       <c r="D517" s="17"/>
@@ -4789,7 +4930,7 @@
       <c r="F517" s="17"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
       <c r="D518" s="17"/>
@@ -4797,7 +4938,7 @@
       <c r="F518" s="17"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
       <c r="D519" s="17"/>
@@ -4805,7 +4946,7 @@
       <c r="F519" s="17"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
       <c r="D520" s="17"/>
@@ -4813,7 +4954,7 @@
       <c r="F520" s="17"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
       <c r="D521" s="17"/>
@@ -4821,7 +4962,7 @@
       <c r="F521" s="17"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
       <c r="D522" s="17"/>
@@ -4829,7 +4970,7 @@
       <c r="F522" s="17"/>
       <c r="H522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
       <c r="D523" s="17"/>
@@ -4837,7 +4978,7 @@
       <c r="F523" s="17"/>
       <c r="H523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
       <c r="D524" s="17"/>
@@ -4845,7 +4986,7 @@
       <c r="F524" s="17"/>
       <c r="H524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
       <c r="D525" s="17"/>
@@ -4853,7 +4994,7 @@
       <c r="F525" s="17"/>
       <c r="H525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
       <c r="D526" s="17"/>
@@ -4861,7 +5002,7 @@
       <c r="F526" s="17"/>
       <c r="H526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
       <c r="D527" s="17"/>
@@ -4869,7 +5010,7 @@
       <c r="F527" s="17"/>
       <c r="H527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
       <c r="D528" s="17"/>
@@ -4877,7 +5018,7 @@
       <c r="F528" s="17"/>
       <c r="H528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
       <c r="D529" s="17"/>
@@ -4885,7 +5026,7 @@
       <c r="F529" s="17"/>
       <c r="H529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
       <c r="D530" s="17"/>
@@ -4893,7 +5034,7 @@
       <c r="F530" s="17"/>
       <c r="H530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
       <c r="D531" s="17"/>
@@ -4901,7 +5042,7 @@
       <c r="F531" s="17"/>
       <c r="H531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
@@ -4909,7 +5050,7 @@
       <c r="F532" s="17"/>
       <c r="H532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
       <c r="D533" s="17"/>
@@ -4917,7 +5058,7 @@
       <c r="F533" s="17"/>
       <c r="H533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
       <c r="D534" s="17"/>
@@ -4925,7 +5066,7 @@
       <c r="F534" s="17"/>
       <c r="H534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
       <c r="D535" s="17"/>
@@ -4933,7 +5074,7 @@
       <c r="F535" s="17"/>
       <c r="H535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
       <c r="D536" s="17"/>
@@ -4941,7 +5082,7 @@
       <c r="F536" s="17"/>
       <c r="H536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
       <c r="D537" s="17"/>
@@ -4949,7 +5090,7 @@
       <c r="F537" s="17"/>
       <c r="H537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
       <c r="D538" s="17"/>
@@ -4957,7 +5098,7 @@
       <c r="F538" s="17"/>
       <c r="H538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
       <c r="D539" s="17"/>
@@ -4965,7 +5106,7 @@
       <c r="F539" s="17"/>
       <c r="H539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
       <c r="D540" s="17"/>
@@ -4973,7 +5114,7 @@
       <c r="F540" s="17"/>
       <c r="H540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
       <c r="D541" s="17"/>
@@ -4981,7 +5122,7 @@
       <c r="F541" s="17"/>
       <c r="H541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
       <c r="D542" s="17"/>
@@ -4989,7 +5130,7 @@
       <c r="F542" s="17"/>
       <c r="H542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
       <c r="D543" s="17"/>
@@ -4997,7 +5138,7 @@
       <c r="F543" s="17"/>
       <c r="H543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
       <c r="D544" s="17"/>
@@ -5005,7 +5146,7 @@
       <c r="F544" s="17"/>
       <c r="H544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
       <c r="D545" s="17"/>
@@ -5013,7 +5154,7 @@
       <c r="F545" s="17"/>
       <c r="H545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
       <c r="D546" s="17"/>
@@ -5021,7 +5162,7 @@
       <c r="F546" s="17"/>
       <c r="H546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
       <c r="D547" s="17"/>
@@ -5029,7 +5170,7 @@
       <c r="F547" s="17"/>
       <c r="H547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
       <c r="D548" s="17"/>
@@ -5037,7 +5178,7 @@
       <c r="F548" s="17"/>
       <c r="H548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
       <c r="D549" s="17"/>
@@ -5045,7 +5186,7 @@
       <c r="F549" s="17"/>
       <c r="H549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
       <c r="D550" s="17"/>
@@ -5053,7 +5194,7 @@
       <c r="F550" s="17"/>
       <c r="H550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
       <c r="D551" s="17"/>
@@ -5061,7 +5202,7 @@
       <c r="F551" s="17"/>
       <c r="H551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
       <c r="D552" s="17"/>
@@ -5069,7 +5210,7 @@
       <c r="F552" s="17"/>
       <c r="H552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
       <c r="D553" s="17"/>
@@ -5077,7 +5218,7 @@
       <c r="F553" s="17"/>
       <c r="H553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
       <c r="D554" s="17"/>
@@ -5085,7 +5226,7 @@
       <c r="F554" s="17"/>
       <c r="H554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
       <c r="D555" s="17"/>
@@ -5093,7 +5234,7 @@
       <c r="F555" s="17"/>
       <c r="H555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
       <c r="D556" s="17"/>
@@ -5101,7 +5242,7 @@
       <c r="F556" s="17"/>
       <c r="H556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
       <c r="D557" s="17"/>
@@ -5109,7 +5250,7 @@
       <c r="F557" s="17"/>
       <c r="H557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
       <c r="D558" s="17"/>
@@ -5117,7 +5258,7 @@
       <c r="F558" s="17"/>
       <c r="H558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
       <c r="D559" s="17"/>
@@ -5125,7 +5266,7 @@
       <c r="F559" s="17"/>
       <c r="H559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
       <c r="D560" s="17"/>
@@ -5133,7 +5274,7 @@
       <c r="F560" s="17"/>
       <c r="H560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
       <c r="D561" s="17"/>
@@ -5141,7 +5282,7 @@
       <c r="F561" s="17"/>
       <c r="H561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
       <c r="D562" s="17"/>
@@ -5149,7 +5290,7 @@
       <c r="F562" s="17"/>
       <c r="H562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
       <c r="D563" s="17"/>
@@ -5157,7 +5298,7 @@
       <c r="F563" s="17"/>
       <c r="H563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
       <c r="D564" s="17"/>
@@ -5165,7 +5306,7 @@
       <c r="F564" s="17"/>
       <c r="H564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
       <c r="D565" s="17"/>
@@ -5173,7 +5314,7 @@
       <c r="F565" s="17"/>
       <c r="H565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
       <c r="D566" s="17"/>
@@ -5181,7 +5322,7 @@
       <c r="F566" s="17"/>
       <c r="H566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
       <c r="D567" s="17"/>
@@ -5189,7 +5330,7 @@
       <c r="F567" s="17"/>
       <c r="H567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
       <c r="D568" s="17"/>
@@ -5197,7 +5338,7 @@
       <c r="F568" s="17"/>
       <c r="H568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
       <c r="D569" s="17"/>
@@ -5205,7 +5346,7 @@
       <c r="F569" s="17"/>
       <c r="H569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
       <c r="D570" s="17"/>
@@ -5213,7 +5354,7 @@
       <c r="F570" s="17"/>
       <c r="H570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
       <c r="D571" s="17"/>
@@ -5221,7 +5362,7 @@
       <c r="F571" s="17"/>
       <c r="H571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
       <c r="D572" s="17"/>
@@ -5229,7 +5370,7 @@
       <c r="F572" s="17"/>
       <c r="H572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
       <c r="D573" s="17"/>
@@ -5237,7 +5378,7 @@
       <c r="F573" s="17"/>
       <c r="H573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
       <c r="D574" s="17"/>
@@ -5245,7 +5386,7 @@
       <c r="F574" s="17"/>
       <c r="H574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
       <c r="D575" s="17"/>
@@ -5253,7 +5394,7 @@
       <c r="F575" s="17"/>
       <c r="H575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
       <c r="D576" s="17"/>
@@ -5261,7 +5402,7 @@
       <c r="F576" s="17"/>
       <c r="H576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
       <c r="D577" s="17"/>
@@ -5269,7 +5410,7 @@
       <c r="F577" s="17"/>
       <c r="H577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
       <c r="D578" s="17"/>
@@ -5277,7 +5418,7 @@
       <c r="F578" s="17"/>
       <c r="H578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
       <c r="D579" s="17"/>
@@ -5285,7 +5426,7 @@
       <c r="F579" s="17"/>
       <c r="H579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
       <c r="D580" s="17"/>
@@ -5293,7 +5434,7 @@
       <c r="F580" s="17"/>
       <c r="H580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
       <c r="D581" s="17"/>
@@ -5301,7 +5442,7 @@
       <c r="F581" s="17"/>
       <c r="H581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
       <c r="D582" s="17"/>
@@ -5309,7 +5450,7 @@
       <c r="F582" s="17"/>
       <c r="H582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
       <c r="D583" s="17"/>
@@ -5317,7 +5458,7 @@
       <c r="F583" s="17"/>
       <c r="H583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
       <c r="D584" s="17"/>
@@ -5325,7 +5466,7 @@
       <c r="F584" s="17"/>
       <c r="H584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
       <c r="D585" s="17"/>
@@ -5333,7 +5474,7 @@
       <c r="F585" s="17"/>
       <c r="H585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
       <c r="D586" s="17"/>
@@ -5341,7 +5482,7 @@
       <c r="F586" s="17"/>
       <c r="H586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
       <c r="D587" s="17"/>
@@ -5349,7 +5490,7 @@
       <c r="F587" s="17"/>
       <c r="H587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
       <c r="D588" s="17"/>
@@ -5357,7 +5498,7 @@
       <c r="F588" s="17"/>
       <c r="H588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
       <c r="D589" s="17"/>
@@ -5365,7 +5506,7 @@
       <c r="F589" s="17"/>
       <c r="H589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
       <c r="D590" s="17"/>
@@ -5373,7 +5514,7 @@
       <c r="F590" s="17"/>
       <c r="H590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
       <c r="D591" s="17"/>
@@ -5381,7 +5522,7 @@
       <c r="F591" s="17"/>
       <c r="H591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
       <c r="D592" s="17"/>
@@ -5389,7 +5530,7 @@
       <c r="F592" s="17"/>
       <c r="H592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
       <c r="D593" s="17"/>
@@ -5397,7 +5538,7 @@
       <c r="F593" s="17"/>
       <c r="H593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
       <c r="D594" s="17"/>
@@ -5405,7 +5546,7 @@
       <c r="F594" s="17"/>
       <c r="H594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
       <c r="D595" s="17"/>
@@ -5413,7 +5554,7 @@
       <c r="F595" s="17"/>
       <c r="H595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
       <c r="D596" s="17"/>
@@ -5421,7 +5562,7 @@
       <c r="F596" s="17"/>
       <c r="H596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
       <c r="D597" s="17"/>
@@ -5429,7 +5570,7 @@
       <c r="F597" s="17"/>
       <c r="H597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
       <c r="D598" s="17"/>
@@ -5437,7 +5578,7 @@
       <c r="F598" s="17"/>
       <c r="H598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
       <c r="D599" s="17"/>
@@ -5445,7 +5586,7 @@
       <c r="F599" s="17"/>
       <c r="H599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
       <c r="D600" s="17"/>
@@ -5453,7 +5594,7 @@
       <c r="F600" s="17"/>
       <c r="H600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
       <c r="D601" s="17"/>
@@ -5461,7 +5602,7 @@
       <c r="F601" s="17"/>
       <c r="H601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
       <c r="D602" s="17"/>
@@ -5469,7 +5610,7 @@
       <c r="F602" s="17"/>
       <c r="H602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
       <c r="D603" s="17"/>
@@ -5477,7 +5618,7 @@
       <c r="F603" s="17"/>
       <c r="H603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
       <c r="D604" s="17"/>
@@ -5485,7 +5626,7 @@
       <c r="F604" s="17"/>
       <c r="H604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
       <c r="D605" s="17"/>
@@ -5493,7 +5634,7 @@
       <c r="F605" s="17"/>
       <c r="H605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
       <c r="D606" s="17"/>
@@ -5501,7 +5642,7 @@
       <c r="F606" s="17"/>
       <c r="H606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
       <c r="D607" s="17"/>
@@ -5509,7 +5650,7 @@
       <c r="F607" s="17"/>
       <c r="H607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
       <c r="D608" s="17"/>
@@ -5517,7 +5658,7 @@
       <c r="F608" s="17"/>
       <c r="H608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
       <c r="D609" s="17"/>
@@ -5525,7 +5666,7 @@
       <c r="F609" s="17"/>
       <c r="H609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
       <c r="D610" s="17"/>
@@ -5533,7 +5674,7 @@
       <c r="F610" s="17"/>
       <c r="H610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
       <c r="D611" s="17"/>
@@ -5541,7 +5682,7 @@
       <c r="F611" s="17"/>
       <c r="H611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
       <c r="D612" s="17"/>
@@ -5549,7 +5690,7 @@
       <c r="F612" s="17"/>
       <c r="H612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
       <c r="D613" s="17"/>
@@ -5557,7 +5698,7 @@
       <c r="F613" s="17"/>
       <c r="H613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
       <c r="D614" s="17"/>
@@ -5565,7 +5706,7 @@
       <c r="F614" s="17"/>
       <c r="H614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
       <c r="D615" s="17"/>
@@ -5573,7 +5714,7 @@
       <c r="F615" s="17"/>
       <c r="H615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
       <c r="D616" s="17"/>
@@ -5581,7 +5722,7 @@
       <c r="F616" s="17"/>
       <c r="H616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
       <c r="D617" s="17"/>
@@ -5589,7 +5730,7 @@
       <c r="F617" s="17"/>
       <c r="H617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
       <c r="D618" s="17"/>
@@ -5597,7 +5738,7 @@
       <c r="F618" s="17"/>
       <c r="H618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
       <c r="D619" s="17"/>
@@ -5605,7 +5746,7 @@
       <c r="F619" s="17"/>
       <c r="H619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
       <c r="D620" s="17"/>
@@ -5613,7 +5754,7 @@
       <c r="F620" s="17"/>
       <c r="H620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
       <c r="D621" s="17"/>
@@ -5621,7 +5762,7 @@
       <c r="F621" s="17"/>
       <c r="H621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
       <c r="D622" s="17"/>
@@ -5629,7 +5770,7 @@
       <c r="F622" s="17"/>
       <c r="H622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
       <c r="D623" s="17"/>
@@ -5637,7 +5778,7 @@
       <c r="F623" s="17"/>
       <c r="H623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
       <c r="D624" s="17"/>
@@ -5645,7 +5786,7 @@
       <c r="F624" s="17"/>
       <c r="H624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
       <c r="D625" s="17"/>
@@ -5653,7 +5794,7 @@
       <c r="F625" s="17"/>
       <c r="H625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
       <c r="D626" s="17"/>
@@ -5661,7 +5802,7 @@
       <c r="F626" s="17"/>
       <c r="H626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
       <c r="D627" s="17"/>
@@ -5669,7 +5810,7 @@
       <c r="F627" s="17"/>
       <c r="H627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
       <c r="D628" s="17"/>
@@ -5677,7 +5818,7 @@
       <c r="F628" s="17"/>
       <c r="H628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
       <c r="D629" s="17"/>
@@ -5685,7 +5826,7 @@
       <c r="F629" s="17"/>
       <c r="H629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
       <c r="D630" s="17"/>
@@ -5693,7 +5834,7 @@
       <c r="F630" s="17"/>
       <c r="H630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
       <c r="D631" s="17"/>
@@ -5701,7 +5842,7 @@
       <c r="F631" s="17"/>
       <c r="H631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
       <c r="D632" s="17"/>
@@ -5709,7 +5850,7 @@
       <c r="F632" s="17"/>
       <c r="H632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
       <c r="D633" s="17"/>
@@ -5717,7 +5858,7 @@
       <c r="F633" s="17"/>
       <c r="H633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
       <c r="D634" s="17"/>
@@ -5725,7 +5866,7 @@
       <c r="F634" s="17"/>
       <c r="H634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
       <c r="D635" s="17"/>
@@ -5733,7 +5874,7 @@
       <c r="F635" s="17"/>
       <c r="H635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
       <c r="D636" s="17"/>
@@ -5741,7 +5882,7 @@
       <c r="F636" s="17"/>
       <c r="H636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
       <c r="D637" s="17"/>
@@ -5749,7 +5890,7 @@
       <c r="F637" s="17"/>
       <c r="H637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
       <c r="D638" s="17"/>
@@ -5757,7 +5898,7 @@
       <c r="F638" s="17"/>
       <c r="H638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
       <c r="D639" s="17"/>
@@ -5765,7 +5906,7 @@
       <c r="F639" s="17"/>
       <c r="H639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
       <c r="D640" s="17"/>
@@ -5773,7 +5914,7 @@
       <c r="F640" s="17"/>
       <c r="H640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
       <c r="D641" s="17"/>
@@ -5781,7 +5922,7 @@
       <c r="F641" s="17"/>
       <c r="H641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
       <c r="D642" s="17"/>
@@ -5789,7 +5930,7 @@
       <c r="F642" s="17"/>
       <c r="H642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
       <c r="D643" s="17"/>
@@ -5797,7 +5938,7 @@
       <c r="F643" s="17"/>
       <c r="H643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
       <c r="D644" s="17"/>
@@ -5805,7 +5946,7 @@
       <c r="F644" s="17"/>
       <c r="H644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
       <c r="D645" s="17"/>
@@ -5813,7 +5954,7 @@
       <c r="F645" s="17"/>
       <c r="H645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
       <c r="D646" s="17"/>
@@ -5821,7 +5962,7 @@
       <c r="F646" s="17"/>
       <c r="H646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
       <c r="D647" s="17"/>
@@ -5829,7 +5970,7 @@
       <c r="F647" s="17"/>
       <c r="H647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
       <c r="D648" s="17"/>
@@ -5837,7 +5978,7 @@
       <c r="F648" s="17"/>
       <c r="H648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
       <c r="D649" s="17"/>
@@ -5845,7 +5986,7 @@
       <c r="F649" s="17"/>
       <c r="H649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
       <c r="D650" s="17"/>
@@ -5853,7 +5994,7 @@
       <c r="F650" s="17"/>
       <c r="H650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
       <c r="D651" s="17"/>
@@ -5861,7 +6002,7 @@
       <c r="F651" s="17"/>
       <c r="H651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
       <c r="D652" s="17"/>
@@ -5869,7 +6010,7 @@
       <c r="F652" s="17"/>
       <c r="H652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
       <c r="D653" s="17"/>
@@ -5877,7 +6018,7 @@
       <c r="F653" s="17"/>
       <c r="H653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
       <c r="D654" s="17"/>
@@ -5885,7 +6026,7 @@
       <c r="F654" s="17"/>
       <c r="H654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
       <c r="D655" s="17"/>
@@ -5893,7 +6034,7 @@
       <c r="F655" s="17"/>
       <c r="H655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
       <c r="D656" s="17"/>
@@ -5901,7 +6042,7 @@
       <c r="F656" s="17"/>
       <c r="H656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
       <c r="D657" s="17"/>
@@ -5909,7 +6050,7 @@
       <c r="F657" s="17"/>
       <c r="H657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
       <c r="D658" s="17"/>
@@ -5917,7 +6058,7 @@
       <c r="F658" s="17"/>
       <c r="H658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
       <c r="D659" s="17"/>
@@ -5925,7 +6066,7 @@
       <c r="F659" s="17"/>
       <c r="H659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
       <c r="D660" s="17"/>
@@ -5933,7 +6074,7 @@
       <c r="F660" s="17"/>
       <c r="H660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
       <c r="D661" s="17"/>
@@ -5941,7 +6082,7 @@
       <c r="F661" s="17"/>
       <c r="H661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
       <c r="D662" s="17"/>
@@ -5949,7 +6090,7 @@
       <c r="F662" s="17"/>
       <c r="H662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
       <c r="D663" s="17"/>
@@ -5957,7 +6098,7 @@
       <c r="F663" s="17"/>
       <c r="H663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
       <c r="D664" s="17"/>
@@ -5965,7 +6106,7 @@
       <c r="F664" s="17"/>
       <c r="H664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
       <c r="D665" s="17"/>
@@ -5973,7 +6114,7 @@
       <c r="F665" s="17"/>
       <c r="H665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
       <c r="D666" s="17"/>
@@ -5981,7 +6122,7 @@
       <c r="F666" s="17"/>
       <c r="H666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
       <c r="D667" s="17"/>
@@ -5989,7 +6130,7 @@
       <c r="F667" s="17"/>
       <c r="H667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
       <c r="D668" s="17"/>
@@ -5997,7 +6138,7 @@
       <c r="F668" s="17"/>
       <c r="H668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
       <c r="D669" s="17"/>
@@ -6005,7 +6146,7 @@
       <c r="F669" s="17"/>
       <c r="H669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
       <c r="D670" s="17"/>
@@ -6013,7 +6154,7 @@
       <c r="F670" s="17"/>
       <c r="H670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
       <c r="D671" s="17"/>
@@ -6021,7 +6162,7 @@
       <c r="F671" s="17"/>
       <c r="H671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
       <c r="D672" s="17"/>
@@ -6029,7 +6170,7 @@
       <c r="F672" s="17"/>
       <c r="H672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
       <c r="D673" s="17"/>
@@ -6037,7 +6178,7 @@
       <c r="F673" s="17"/>
       <c r="H673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
       <c r="D674" s="17"/>
@@ -6045,7 +6186,7 @@
       <c r="F674" s="17"/>
       <c r="H674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
       <c r="D675" s="17"/>
@@ -6053,7 +6194,7 @@
       <c r="F675" s="17"/>
       <c r="H675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
       <c r="D676" s="17"/>
@@ -6061,7 +6202,7 @@
       <c r="F676" s="17"/>
       <c r="H676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
       <c r="D677" s="17"/>
@@ -6069,7 +6210,7 @@
       <c r="F677" s="17"/>
       <c r="H677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
       <c r="D678" s="17"/>
@@ -6077,7 +6218,7 @@
       <c r="F678" s="17"/>
       <c r="H678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
       <c r="D679" s="17"/>
@@ -6085,7 +6226,7 @@
       <c r="F679" s="17"/>
       <c r="H679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
       <c r="D680" s="17"/>
@@ -6093,7 +6234,7 @@
       <c r="F680" s="17"/>
       <c r="H680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
       <c r="D681" s="17"/>
@@ -6101,7 +6242,7 @@
       <c r="F681" s="17"/>
       <c r="H681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
       <c r="D682" s="17"/>
@@ -6109,7 +6250,7 @@
       <c r="F682" s="17"/>
       <c r="H682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
       <c r="D683" s="17"/>
@@ -6117,7 +6258,7 @@
       <c r="F683" s="17"/>
       <c r="H683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
       <c r="D684" s="17"/>
@@ -6125,7 +6266,7 @@
       <c r="F684" s="17"/>
       <c r="H684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
       <c r="D685" s="17"/>
@@ -6133,7 +6274,7 @@
       <c r="F685" s="17"/>
       <c r="H685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
       <c r="D686" s="17"/>
@@ -6141,7 +6282,7 @@
       <c r="F686" s="17"/>
       <c r="H686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
       <c r="D687" s="17"/>
@@ -6149,7 +6290,7 @@
       <c r="F687" s="17"/>
       <c r="H687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
       <c r="D688" s="17"/>
@@ -6157,7 +6298,7 @@
       <c r="F688" s="17"/>
       <c r="H688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
       <c r="D689" s="17"/>
@@ -6165,7 +6306,7 @@
       <c r="F689" s="17"/>
       <c r="H689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
       <c r="D690" s="17"/>
@@ -6173,7 +6314,7 @@
       <c r="F690" s="17"/>
       <c r="H690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
       <c r="D691" s="17"/>
@@ -6181,7 +6322,7 @@
       <c r="F691" s="17"/>
       <c r="H691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
       <c r="D692" s="17"/>
@@ -6189,7 +6330,7 @@
       <c r="F692" s="17"/>
       <c r="H692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
       <c r="D693" s="17"/>
@@ -6197,7 +6338,7 @@
       <c r="F693" s="17"/>
       <c r="H693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
       <c r="D694" s="17"/>
@@ -6205,7 +6346,7 @@
       <c r="F694" s="17"/>
       <c r="H694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
       <c r="D695" s="17"/>
@@ -6213,7 +6354,7 @@
       <c r="F695" s="17"/>
       <c r="H695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
       <c r="D696" s="17"/>
@@ -6221,7 +6362,7 @@
       <c r="F696" s="17"/>
       <c r="H696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
       <c r="D697" s="17"/>
@@ -6229,7 +6370,7 @@
       <c r="F697" s="17"/>
       <c r="H697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
       <c r="D698" s="17"/>
@@ -6237,7 +6378,7 @@
       <c r="F698" s="17"/>
       <c r="H698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
       <c r="D699" s="17"/>
@@ -6245,7 +6386,7 @@
       <c r="F699" s="17"/>
       <c r="H699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
       <c r="D700" s="17"/>
@@ -6253,7 +6394,7 @@
       <c r="F700" s="17"/>
       <c r="H700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
       <c r="D701" s="17"/>
@@ -6261,7 +6402,7 @@
       <c r="F701" s="17"/>
       <c r="H701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
       <c r="D702" s="17"/>
@@ -6269,7 +6410,7 @@
       <c r="F702" s="17"/>
       <c r="H702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
       <c r="D703" s="17"/>
@@ -6277,7 +6418,7 @@
       <c r="F703" s="17"/>
       <c r="H703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
       <c r="D704" s="17"/>
@@ -6285,7 +6426,7 @@
       <c r="F704" s="17"/>
       <c r="H704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
       <c r="D705" s="17"/>
@@ -6293,7 +6434,7 @@
       <c r="F705" s="17"/>
       <c r="H705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
       <c r="D706" s="17"/>
@@ -6301,7 +6442,7 @@
       <c r="F706" s="17"/>
       <c r="H706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
       <c r="D707" s="17"/>
@@ -6309,7 +6450,7 @@
       <c r="F707" s="17"/>
       <c r="H707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
       <c r="D708" s="17"/>
@@ -6317,7 +6458,7 @@
       <c r="F708" s="17"/>
       <c r="H708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
       <c r="D709" s="17"/>
@@ -6325,7 +6466,7 @@
       <c r="F709" s="17"/>
       <c r="H709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
       <c r="D710" s="17"/>
@@ -6333,7 +6474,7 @@
       <c r="F710" s="17"/>
       <c r="H710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
       <c r="D711" s="17"/>
@@ -6341,7 +6482,7 @@
       <c r="F711" s="17"/>
       <c r="H711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
       <c r="D712" s="17"/>
@@ -6349,7 +6490,7 @@
       <c r="F712" s="17"/>
       <c r="H712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
       <c r="D713" s="17"/>
@@ -6357,7 +6498,7 @@
       <c r="F713" s="17"/>
       <c r="H713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
       <c r="D714" s="17"/>
@@ -6365,7 +6506,7 @@
       <c r="F714" s="17"/>
       <c r="H714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
       <c r="D715" s="17"/>
@@ -6373,7 +6514,7 @@
       <c r="F715" s="17"/>
       <c r="H715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
       <c r="D716" s="17"/>
@@ -6381,7 +6522,7 @@
       <c r="F716" s="17"/>
       <c r="H716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
       <c r="D717" s="17"/>
@@ -6389,7 +6530,7 @@
       <c r="F717" s="17"/>
       <c r="H717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
       <c r="D718" s="17"/>
@@ -6397,7 +6538,7 @@
       <c r="F718" s="17"/>
       <c r="H718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
       <c r="D719" s="17"/>
@@ -6405,7 +6546,7 @@
       <c r="F719" s="17"/>
       <c r="H719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
       <c r="D720" s="17"/>
@@ -6413,7 +6554,7 @@
       <c r="F720" s="17"/>
       <c r="H720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
       <c r="D721" s="17"/>
@@ -6421,7 +6562,7 @@
       <c r="F721" s="17"/>
       <c r="H721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
       <c r="D722" s="17"/>
@@ -6429,7 +6570,7 @@
       <c r="F722" s="17"/>
       <c r="H722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
       <c r="D723" s="17"/>
@@ -6437,7 +6578,7 @@
       <c r="F723" s="17"/>
       <c r="H723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
       <c r="D724" s="17"/>
@@ -6445,7 +6586,7 @@
       <c r="F724" s="17"/>
       <c r="H724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
       <c r="D725" s="17"/>
@@ -6453,7 +6594,7 @@
       <c r="F725" s="17"/>
       <c r="H725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
       <c r="D726" s="17"/>
@@ -6461,7 +6602,7 @@
       <c r="F726" s="17"/>
       <c r="H726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
       <c r="D727" s="17"/>
@@ -6469,7 +6610,7 @@
       <c r="F727" s="17"/>
       <c r="H727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
       <c r="D728" s="17"/>
@@ -6477,7 +6618,7 @@
       <c r="F728" s="17"/>
       <c r="H728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
       <c r="D729" s="17"/>
@@ -6485,7 +6626,7 @@
       <c r="F729" s="17"/>
       <c r="H729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
       <c r="D730" s="17"/>
@@ -6493,7 +6634,7 @@
       <c r="F730" s="17"/>
       <c r="H730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
       <c r="D731" s="17"/>
@@ -6501,7 +6642,7 @@
       <c r="F731" s="17"/>
       <c r="H731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
       <c r="D732" s="17"/>
@@ -6509,7 +6650,7 @@
       <c r="F732" s="17"/>
       <c r="H732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
       <c r="D733" s="17"/>
@@ -6517,7 +6658,7 @@
       <c r="F733" s="17"/>
       <c r="H733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
       <c r="D734" s="17"/>
@@ -6525,7 +6666,7 @@
       <c r="F734" s="17"/>
       <c r="H734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
       <c r="D735" s="17"/>
@@ -6533,7 +6674,7 @@
       <c r="F735" s="17"/>
       <c r="H735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
       <c r="D736" s="17"/>
@@ -6541,7 +6682,7 @@
       <c r="F736" s="17"/>
       <c r="H736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
       <c r="D737" s="17"/>
@@ -6549,7 +6690,7 @@
       <c r="F737" s="17"/>
       <c r="H737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
       <c r="D738" s="17"/>
@@ -6557,7 +6698,7 @@
       <c r="F738" s="17"/>
       <c r="H738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
       <c r="D739" s="17"/>
@@ -6565,7 +6706,7 @@
       <c r="F739" s="17"/>
       <c r="H739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
       <c r="D740" s="17"/>
@@ -6573,7 +6714,7 @@
       <c r="F740" s="17"/>
       <c r="H740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
       <c r="D741" s="17"/>
@@ -6581,7 +6722,7 @@
       <c r="F741" s="17"/>
       <c r="H741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
       <c r="D742" s="17"/>
@@ -6589,7 +6730,7 @@
       <c r="F742" s="17"/>
       <c r="H742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
       <c r="D743" s="17"/>
@@ -6597,7 +6738,7 @@
       <c r="F743" s="17"/>
       <c r="H743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
       <c r="D744" s="17"/>
@@ -6605,7 +6746,7 @@
       <c r="F744" s="17"/>
       <c r="H744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
       <c r="D745" s="17"/>
@@ -6613,7 +6754,7 @@
       <c r="F745" s="17"/>
       <c r="H745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
       <c r="D746" s="17"/>
@@ -6621,7 +6762,7 @@
       <c r="F746" s="17"/>
       <c r="H746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
       <c r="D747" s="17"/>
@@ -6629,7 +6770,7 @@
       <c r="F747" s="17"/>
       <c r="H747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
       <c r="D748" s="17"/>
@@ -6637,7 +6778,7 @@
       <c r="F748" s="17"/>
       <c r="H748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
       <c r="D749" s="17"/>
@@ -6645,7 +6786,7 @@
       <c r="F749" s="17"/>
       <c r="H749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
       <c r="D750" s="17"/>
@@ -6653,7 +6794,7 @@
       <c r="F750" s="17"/>
       <c r="H750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
       <c r="D751" s="17"/>
@@ -6661,7 +6802,7 @@
       <c r="F751" s="17"/>
       <c r="H751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
       <c r="D752" s="17"/>
@@ -6669,7 +6810,7 @@
       <c r="F752" s="17"/>
       <c r="H752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
       <c r="D753" s="17"/>
@@ -6677,7 +6818,7 @@
       <c r="F753" s="17"/>
       <c r="H753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
       <c r="D754" s="17"/>
@@ -6685,7 +6826,7 @@
       <c r="F754" s="17"/>
       <c r="H754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
       <c r="D755" s="17"/>
@@ -6693,7 +6834,7 @@
       <c r="F755" s="17"/>
       <c r="H755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
       <c r="D756" s="17"/>
@@ -6701,7 +6842,7 @@
       <c r="F756" s="17"/>
       <c r="H756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
       <c r="D757" s="17"/>
@@ -6709,7 +6850,7 @@
       <c r="F757" s="17"/>
       <c r="H757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
       <c r="D758" s="17"/>
@@ -6717,7 +6858,7 @@
       <c r="F758" s="17"/>
       <c r="H758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
       <c r="D759" s="17"/>
@@ -6725,7 +6866,7 @@
       <c r="F759" s="17"/>
       <c r="H759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
       <c r="D760" s="17"/>
@@ -6733,7 +6874,7 @@
       <c r="F760" s="17"/>
       <c r="H760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
       <c r="D761" s="17"/>
@@ -6741,7 +6882,7 @@
       <c r="F761" s="17"/>
       <c r="H761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
       <c r="D762" s="17"/>
@@ -6749,7 +6890,7 @@
       <c r="F762" s="17"/>
       <c r="H762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
       <c r="D763" s="17"/>
@@ -6757,7 +6898,7 @@
       <c r="F763" s="17"/>
       <c r="H763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
       <c r="D764" s="17"/>
@@ -6765,7 +6906,7 @@
       <c r="F764" s="17"/>
       <c r="H764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
       <c r="D765" s="17"/>
@@ -6773,7 +6914,7 @@
       <c r="F765" s="17"/>
       <c r="H765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
       <c r="D766" s="17"/>
@@ -6781,7 +6922,7 @@
       <c r="F766" s="17"/>
       <c r="H766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
       <c r="D767" s="17"/>
@@ -6789,7 +6930,7 @@
       <c r="F767" s="17"/>
       <c r="H767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
       <c r="D768" s="17"/>
@@ -6797,7 +6938,7 @@
       <c r="F768" s="17"/>
       <c r="H768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
       <c r="D769" s="17"/>
@@ -6805,7 +6946,7 @@
       <c r="F769" s="17"/>
       <c r="H769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
       <c r="D770" s="17"/>
@@ -6813,7 +6954,7 @@
       <c r="F770" s="17"/>
       <c r="H770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
       <c r="D771" s="17"/>
@@ -6821,7 +6962,7 @@
       <c r="F771" s="17"/>
       <c r="H771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
       <c r="D772" s="17"/>
@@ -6829,7 +6970,7 @@
       <c r="F772" s="17"/>
       <c r="H772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
       <c r="D773" s="17"/>
@@ -6837,7 +6978,7 @@
       <c r="F773" s="17"/>
       <c r="H773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
       <c r="D774" s="17"/>
@@ -6845,7 +6986,7 @@
       <c r="F774" s="17"/>
       <c r="H774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
       <c r="D775" s="17"/>
@@ -6853,7 +6994,7 @@
       <c r="F775" s="17"/>
       <c r="H775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
       <c r="D776" s="17"/>
@@ -6861,7 +7002,7 @@
       <c r="F776" s="17"/>
       <c r="H776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
       <c r="D777" s="17"/>
@@ -6869,7 +7010,7 @@
       <c r="F777" s="17"/>
       <c r="H777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
       <c r="D778" s="17"/>
@@ -6877,7 +7018,7 @@
       <c r="F778" s="17"/>
       <c r="H778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
       <c r="D779" s="17"/>
@@ -6885,7 +7026,7 @@
       <c r="F779" s="17"/>
       <c r="H779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
       <c r="D780" s="17"/>
@@ -6893,7 +7034,7 @@
       <c r="F780" s="17"/>
       <c r="H780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
       <c r="D781" s="17"/>
@@ -6901,7 +7042,7 @@
       <c r="F781" s="17"/>
       <c r="H781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
       <c r="D782" s="17"/>
@@ -6909,7 +7050,7 @@
       <c r="F782" s="17"/>
       <c r="H782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
       <c r="D783" s="17"/>
@@ -6917,7 +7058,7 @@
       <c r="F783" s="17"/>
       <c r="H783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
       <c r="D784" s="17"/>
@@ -6925,7 +7066,7 @@
       <c r="F784" s="17"/>
       <c r="H784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
       <c r="D785" s="17"/>
@@ -6933,7 +7074,7 @@
       <c r="F785" s="17"/>
       <c r="H785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
       <c r="D786" s="17"/>
@@ -6941,7 +7082,7 @@
       <c r="F786" s="17"/>
       <c r="H786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
       <c r="D787" s="17"/>
@@ -6949,7 +7090,7 @@
       <c r="F787" s="17"/>
       <c r="H787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
       <c r="D788" s="17"/>
@@ -6957,7 +7098,7 @@
       <c r="F788" s="17"/>
       <c r="H788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
       <c r="D789" s="17"/>
@@ -6965,7 +7106,7 @@
       <c r="F789" s="17"/>
       <c r="H789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
       <c r="D790" s="17"/>
@@ -6973,7 +7114,7 @@
       <c r="F790" s="17"/>
       <c r="H790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
       <c r="D791" s="17"/>
@@ -6981,7 +7122,7 @@
       <c r="F791" s="17"/>
       <c r="H791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
       <c r="D792" s="17"/>
@@ -6989,7 +7130,7 @@
       <c r="F792" s="17"/>
       <c r="H792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
       <c r="D793" s="17"/>
@@ -6997,7 +7138,7 @@
       <c r="F793" s="17"/>
       <c r="H793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
       <c r="D794" s="17"/>
@@ -7005,7 +7146,7 @@
       <c r="F794" s="17"/>
       <c r="H794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
       <c r="D795" s="17"/>
@@ -7013,7 +7154,7 @@
       <c r="F795" s="17"/>
       <c r="H795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
       <c r="D796" s="17"/>
@@ -7021,7 +7162,7 @@
       <c r="F796" s="17"/>
       <c r="H796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
       <c r="D797" s="17"/>
@@ -7029,7 +7170,7 @@
       <c r="F797" s="17"/>
       <c r="H797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
       <c r="D798" s="17"/>
@@ -7037,7 +7178,7 @@
       <c r="F798" s="17"/>
       <c r="H798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
       <c r="D799" s="17"/>
@@ -7045,7 +7186,7 @@
       <c r="F799" s="17"/>
       <c r="H799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
       <c r="D800" s="17"/>
@@ -7053,7 +7194,7 @@
       <c r="F800" s="17"/>
       <c r="H800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
       <c r="D801" s="17"/>
@@ -7061,7 +7202,7 @@
       <c r="F801" s="17"/>
       <c r="H801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
       <c r="D802" s="17"/>
@@ -7069,7 +7210,7 @@
       <c r="F802" s="17"/>
       <c r="H802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
       <c r="D803" s="17"/>
@@ -7077,7 +7218,7 @@
       <c r="F803" s="17"/>
       <c r="H803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
       <c r="D804" s="17"/>
@@ -7085,7 +7226,7 @@
       <c r="F804" s="17"/>
       <c r="H804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
       <c r="D805" s="17"/>
@@ -7093,7 +7234,7 @@
       <c r="F805" s="17"/>
       <c r="H805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
       <c r="D806" s="17"/>
@@ -7101,7 +7242,7 @@
       <c r="F806" s="17"/>
       <c r="H806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
       <c r="D807" s="17"/>
@@ -7109,7 +7250,7 @@
       <c r="F807" s="17"/>
       <c r="H807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
       <c r="D808" s="17"/>
@@ -7117,7 +7258,7 @@
       <c r="F808" s="17"/>
       <c r="H808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
       <c r="D809" s="17"/>
@@ -7125,7 +7266,7 @@
       <c r="F809" s="17"/>
       <c r="H809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
       <c r="D810" s="17"/>
@@ -7133,7 +7274,7 @@
       <c r="F810" s="17"/>
       <c r="H810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
       <c r="D811" s="17"/>
@@ -7141,7 +7282,7 @@
       <c r="F811" s="17"/>
       <c r="H811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
       <c r="D812" s="17"/>
@@ -7149,7 +7290,7 @@
       <c r="F812" s="17"/>
       <c r="H812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
       <c r="D813" s="17"/>
@@ -7157,7 +7298,7 @@
       <c r="F813" s="17"/>
       <c r="H813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
       <c r="D814" s="17"/>
@@ -7165,7 +7306,7 @@
       <c r="F814" s="17"/>
       <c r="H814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
       <c r="D815" s="17"/>
@@ -7173,7 +7314,7 @@
       <c r="F815" s="17"/>
       <c r="H815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
       <c r="D816" s="17"/>
@@ -7181,7 +7322,7 @@
       <c r="F816" s="17"/>
       <c r="H816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
       <c r="D817" s="17"/>
@@ -7189,7 +7330,7 @@
       <c r="F817" s="17"/>
       <c r="H817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
       <c r="D818" s="17"/>
@@ -7197,7 +7338,7 @@
       <c r="F818" s="17"/>
       <c r="H818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
       <c r="D819" s="17"/>
@@ -7205,7 +7346,7 @@
       <c r="F819" s="17"/>
       <c r="H819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
       <c r="D820" s="17"/>
@@ -7213,7 +7354,7 @@
       <c r="F820" s="17"/>
       <c r="H820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
       <c r="D821" s="17"/>
@@ -7221,7 +7362,7 @@
       <c r="F821" s="17"/>
       <c r="H821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
       <c r="D822" s="17"/>
@@ -7229,7 +7370,7 @@
       <c r="F822" s="17"/>
       <c r="H822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
       <c r="D823" s="17"/>
@@ -7237,7 +7378,7 @@
       <c r="F823" s="17"/>
       <c r="H823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
       <c r="D824" s="17"/>
@@ -7245,7 +7386,7 @@
       <c r="F824" s="17"/>
       <c r="H824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
       <c r="D825" s="17"/>
@@ -7253,7 +7394,7 @@
       <c r="F825" s="17"/>
       <c r="H825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
       <c r="D826" s="17"/>
@@ -7261,7 +7402,7 @@
       <c r="F826" s="17"/>
       <c r="H826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
       <c r="D827" s="17"/>
@@ -7269,7 +7410,7 @@
       <c r="F827" s="17"/>
       <c r="H827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
       <c r="D828" s="17"/>
@@ -7277,7 +7418,7 @@
       <c r="F828" s="17"/>
       <c r="H828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
       <c r="D829" s="17"/>
@@ -7285,7 +7426,7 @@
       <c r="F829" s="17"/>
       <c r="H829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
       <c r="D830" s="17"/>
@@ -7293,7 +7434,7 @@
       <c r="F830" s="17"/>
       <c r="H830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
       <c r="D831" s="17"/>
@@ -7301,7 +7442,7 @@
       <c r="F831" s="17"/>
       <c r="H831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
       <c r="D832" s="17"/>
@@ -7309,7 +7450,7 @@
       <c r="F832" s="17"/>
       <c r="H832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
       <c r="D833" s="17"/>
@@ -7317,7 +7458,7 @@
       <c r="F833" s="17"/>
       <c r="H833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
       <c r="D834" s="17"/>
@@ -7325,7 +7466,7 @@
       <c r="F834" s="17"/>
       <c r="H834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
       <c r="D835" s="17"/>
@@ -7333,7 +7474,7 @@
       <c r="F835" s="17"/>
       <c r="H835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
       <c r="D836" s="17"/>
@@ -7341,7 +7482,7 @@
       <c r="F836" s="17"/>
       <c r="H836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
       <c r="D837" s="17"/>
@@ -7349,7 +7490,7 @@
       <c r="F837" s="17"/>
       <c r="H837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
       <c r="D838" s="17"/>
@@ -7357,7 +7498,7 @@
       <c r="F838" s="17"/>
       <c r="H838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
       <c r="D839" s="17"/>
@@ -7365,7 +7506,7 @@
       <c r="F839" s="17"/>
       <c r="H839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
       <c r="D840" s="17"/>
@@ -7373,7 +7514,7 @@
       <c r="F840" s="17"/>
       <c r="H840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
       <c r="D841" s="17"/>
@@ -7381,7 +7522,7 @@
       <c r="F841" s="17"/>
       <c r="H841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
       <c r="D842" s="17"/>
@@ -7389,7 +7530,7 @@
       <c r="F842" s="17"/>
       <c r="H842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
       <c r="D843" s="17"/>
@@ -7397,7 +7538,7 @@
       <c r="F843" s="17"/>
       <c r="H843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
       <c r="D844" s="17"/>
@@ -7405,7 +7546,7 @@
       <c r="F844" s="17"/>
       <c r="H844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
       <c r="D845" s="17"/>
@@ -7413,7 +7554,7 @@
       <c r="F845" s="17"/>
       <c r="H845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
       <c r="D846" s="17"/>
@@ -7421,7 +7562,7 @@
       <c r="F846" s="17"/>
       <c r="H846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
       <c r="D847" s="17"/>
@@ -7429,7 +7570,7 @@
       <c r="F847" s="17"/>
       <c r="H847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
       <c r="D848" s="17"/>
@@ -7437,7 +7578,7 @@
       <c r="F848" s="17"/>
       <c r="H848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
       <c r="D849" s="17"/>
@@ -7445,7 +7586,7 @@
       <c r="F849" s="17"/>
       <c r="H849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
       <c r="D850" s="17"/>
@@ -7453,7 +7594,7 @@
       <c r="F850" s="17"/>
       <c r="H850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
       <c r="D851" s="17"/>
@@ -7461,7 +7602,7 @@
       <c r="F851" s="17"/>
       <c r="H851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
       <c r="D852" s="17"/>
@@ -7469,7 +7610,7 @@
       <c r="F852" s="17"/>
       <c r="H852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
       <c r="D853" s="17"/>
@@ -7477,7 +7618,7 @@
       <c r="F853" s="17"/>
       <c r="H853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
       <c r="D854" s="17"/>
@@ -7485,7 +7626,7 @@
       <c r="F854" s="17"/>
       <c r="H854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
       <c r="D855" s="17"/>
@@ -7493,7 +7634,7 @@
       <c r="F855" s="17"/>
       <c r="H855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
       <c r="D856" s="17"/>
@@ -7501,7 +7642,7 @@
       <c r="F856" s="17"/>
       <c r="H856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
       <c r="D857" s="17"/>
@@ -7509,7 +7650,7 @@
       <c r="F857" s="17"/>
       <c r="H857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
       <c r="D858" s="17"/>
@@ -7517,7 +7658,7 @@
       <c r="F858" s="17"/>
       <c r="H858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
       <c r="D859" s="17"/>
@@ -7525,7 +7666,7 @@
       <c r="F859" s="17"/>
       <c r="H859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
       <c r="D860" s="17"/>
@@ -7533,7 +7674,7 @@
       <c r="F860" s="17"/>
       <c r="H860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
       <c r="D861" s="17"/>
@@ -7541,7 +7682,7 @@
       <c r="F861" s="17"/>
       <c r="H861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
       <c r="D862" s="17"/>
@@ -7549,7 +7690,7 @@
       <c r="F862" s="17"/>
       <c r="H862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
       <c r="D863" s="17"/>
@@ -7557,7 +7698,7 @@
       <c r="F863" s="17"/>
       <c r="H863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
       <c r="D864" s="17"/>
@@ -7565,7 +7706,7 @@
       <c r="F864" s="17"/>
       <c r="H864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
       <c r="D865" s="17"/>
@@ -7573,7 +7714,7 @@
       <c r="F865" s="17"/>
       <c r="H865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
       <c r="D866" s="17"/>
@@ -7581,7 +7722,7 @@
       <c r="F866" s="17"/>
       <c r="H866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
       <c r="D867" s="17"/>
@@ -7589,7 +7730,7 @@
       <c r="F867" s="17"/>
       <c r="H867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
       <c r="D868" s="17"/>
@@ -7597,7 +7738,7 @@
       <c r="F868" s="17"/>
       <c r="H868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
       <c r="D869" s="17"/>
@@ -7605,7 +7746,7 @@
       <c r="F869" s="17"/>
       <c r="H869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
       <c r="D870" s="17"/>
@@ -7613,7 +7754,7 @@
       <c r="F870" s="17"/>
       <c r="H870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
       <c r="D871" s="17"/>
@@ -7621,7 +7762,7 @@
       <c r="F871" s="17"/>
       <c r="H871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
       <c r="D872" s="17"/>
@@ -7629,7 +7770,7 @@
       <c r="F872" s="17"/>
       <c r="H872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
       <c r="D873" s="17"/>
@@ -7637,7 +7778,7 @@
       <c r="F873" s="17"/>
       <c r="H873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
       <c r="D874" s="17"/>
@@ -7645,7 +7786,7 @@
       <c r="F874" s="17"/>
       <c r="H874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
       <c r="D875" s="17"/>
@@ -7653,7 +7794,7 @@
       <c r="F875" s="17"/>
       <c r="H875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
       <c r="D876" s="17"/>
@@ -7661,7 +7802,7 @@
       <c r="F876" s="17"/>
       <c r="H876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
       <c r="D877" s="17"/>
@@ -7669,7 +7810,7 @@
       <c r="F877" s="17"/>
       <c r="H877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
       <c r="D878" s="17"/>
@@ -7677,7 +7818,7 @@
       <c r="F878" s="17"/>
       <c r="H878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
       <c r="D879" s="17"/>
@@ -7685,7 +7826,7 @@
       <c r="F879" s="17"/>
       <c r="H879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
       <c r="D880" s="17"/>
@@ -7693,7 +7834,7 @@
       <c r="F880" s="17"/>
       <c r="H880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
       <c r="D881" s="17"/>
@@ -7701,7 +7842,7 @@
       <c r="F881" s="17"/>
       <c r="H881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
       <c r="D882" s="17"/>
@@ -7709,7 +7850,7 @@
       <c r="F882" s="17"/>
       <c r="H882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
       <c r="D883" s="17"/>
@@ -7717,7 +7858,7 @@
       <c r="F883" s="17"/>
       <c r="H883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
       <c r="D884" s="17"/>
@@ -7725,7 +7866,7 @@
       <c r="F884" s="17"/>
       <c r="H884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
       <c r="D885" s="17"/>
@@ -7733,7 +7874,7 @@
       <c r="F885" s="17"/>
       <c r="H885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
       <c r="D886" s="17"/>
@@ -7741,7 +7882,7 @@
       <c r="F886" s="17"/>
       <c r="H886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
       <c r="D887" s="17"/>
@@ -7749,7 +7890,7 @@
       <c r="F887" s="17"/>
       <c r="H887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
       <c r="D888" s="17"/>
@@ -7757,7 +7898,7 @@
       <c r="F888" s="17"/>
       <c r="H888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
       <c r="D889" s="17"/>
@@ -7765,7 +7906,7 @@
       <c r="F889" s="17"/>
       <c r="H889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
       <c r="D890" s="17"/>
@@ -7773,7 +7914,7 @@
       <c r="F890" s="17"/>
       <c r="H890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
       <c r="D891" s="17"/>
@@ -7781,7 +7922,7 @@
       <c r="F891" s="17"/>
       <c r="H891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
       <c r="D892" s="17"/>
@@ -7789,7 +7930,7 @@
       <c r="F892" s="17"/>
       <c r="H892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
       <c r="D893" s="17"/>
@@ -7797,7 +7938,7 @@
       <c r="F893" s="17"/>
       <c r="H893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
       <c r="D894" s="17"/>
@@ -7805,7 +7946,7 @@
       <c r="F894" s="17"/>
       <c r="H894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
       <c r="D895" s="17"/>
@@ -7813,7 +7954,7 @@
       <c r="F895" s="17"/>
       <c r="H895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
       <c r="D896" s="17"/>
@@ -7821,7 +7962,7 @@
       <c r="F896" s="17"/>
       <c r="H896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
       <c r="D897" s="17"/>
@@ -7829,7 +7970,7 @@
       <c r="F897" s="17"/>
       <c r="H897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
       <c r="D898" s="17"/>
@@ -7837,7 +7978,7 @@
       <c r="F898" s="17"/>
       <c r="H898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
       <c r="D899" s="17"/>
@@ -7845,7 +7986,7 @@
       <c r="F899" s="17"/>
       <c r="H899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
       <c r="D900" s="17"/>
@@ -7853,7 +7994,7 @@
       <c r="F900" s="17"/>
       <c r="H900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
       <c r="D901" s="17"/>
@@ -7861,7 +8002,7 @@
       <c r="F901" s="17"/>
       <c r="H901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
       <c r="D902" s="17"/>
@@ -7869,7 +8010,7 @@
       <c r="F902" s="17"/>
       <c r="H902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
       <c r="D903" s="17"/>
@@ -7877,7 +8018,7 @@
       <c r="F903" s="17"/>
       <c r="H903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
       <c r="D904" s="17"/>
@@ -7885,7 +8026,7 @@
       <c r="F904" s="17"/>
       <c r="H904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
       <c r="D905" s="17"/>
@@ -7893,7 +8034,7 @@
       <c r="F905" s="17"/>
       <c r="H905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
       <c r="D906" s="17"/>
@@ -7901,7 +8042,7 @@
       <c r="F906" s="17"/>
       <c r="H906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
       <c r="D907" s="17"/>
@@ -7909,7 +8050,7 @@
       <c r="F907" s="17"/>
       <c r="H907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
       <c r="D908" s="17"/>
@@ -7917,7 +8058,7 @@
       <c r="F908" s="17"/>
       <c r="H908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
       <c r="D909" s="17"/>
@@ -7925,7 +8066,7 @@
       <c r="F909" s="17"/>
       <c r="H909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
       <c r="D910" s="17"/>
@@ -7933,7 +8074,7 @@
       <c r="F910" s="17"/>
       <c r="H910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
       <c r="D911" s="17"/>
@@ -7941,7 +8082,7 @@
       <c r="F911" s="17"/>
       <c r="H911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
       <c r="D912" s="17"/>
@@ -7949,7 +8090,7 @@
       <c r="F912" s="17"/>
       <c r="H912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
       <c r="D913" s="17"/>
@@ -7957,7 +8098,7 @@
       <c r="F913" s="17"/>
       <c r="H913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
       <c r="D914" s="17"/>
@@ -7965,7 +8106,7 @@
       <c r="F914" s="17"/>
       <c r="H914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
       <c r="D915" s="17"/>
@@ -7973,7 +8114,7 @@
       <c r="F915" s="17"/>
       <c r="H915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
       <c r="D916" s="17"/>
@@ -7981,7 +8122,7 @@
       <c r="F916" s="17"/>
       <c r="H916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
       <c r="D917" s="17"/>
@@ -7989,7 +8130,7 @@
       <c r="F917" s="17"/>
       <c r="H917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
       <c r="D918" s="17"/>
@@ -7997,7 +8138,7 @@
       <c r="F918" s="17"/>
       <c r="H918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
       <c r="D919" s="17"/>
@@ -8005,7 +8146,7 @@
       <c r="F919" s="17"/>
       <c r="H919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
       <c r="D920" s="17"/>
@@ -8013,7 +8154,7 @@
       <c r="F920" s="17"/>
       <c r="H920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
       <c r="D921" s="17"/>
@@ -8021,7 +8162,7 @@
       <c r="F921" s="17"/>
       <c r="H921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
       <c r="D922" s="17"/>
@@ -8029,7 +8170,7 @@
       <c r="F922" s="17"/>
       <c r="H922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
       <c r="D923" s="17"/>
@@ -8037,7 +8178,7 @@
       <c r="F923" s="17"/>
       <c r="H923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
       <c r="D924" s="17"/>
@@ -8045,7 +8186,7 @@
       <c r="F924" s="17"/>
       <c r="H924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
       <c r="D925" s="17"/>
@@ -8053,7 +8194,7 @@
       <c r="F925" s="17"/>
       <c r="H925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
       <c r="D926" s="17"/>
@@ -8061,7 +8202,7 @@
       <c r="F926" s="17"/>
       <c r="H926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
       <c r="D927" s="17"/>
@@ -8069,7 +8210,7 @@
       <c r="F927" s="17"/>
       <c r="H927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
       <c r="D928" s="17"/>
@@ -8077,7 +8218,7 @@
       <c r="F928" s="17"/>
       <c r="H928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
       <c r="D929" s="17"/>
@@ -8085,7 +8226,7 @@
       <c r="F929" s="17"/>
       <c r="H929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
       <c r="D930" s="17"/>
@@ -8093,7 +8234,7 @@
       <c r="F930" s="17"/>
       <c r="H930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
       <c r="D931" s="17"/>
@@ -8101,7 +8242,7 @@
       <c r="F931" s="17"/>
       <c r="H931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
       <c r="D932" s="17"/>
@@ -8109,7 +8250,7 @@
       <c r="F932" s="17"/>
       <c r="H932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
       <c r="D933" s="17"/>
@@ -8117,7 +8258,7 @@
       <c r="F933" s="17"/>
       <c r="H933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
       <c r="D934" s="17"/>
@@ -8125,7 +8266,7 @@
       <c r="F934" s="17"/>
       <c r="H934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
       <c r="D935" s="17"/>
@@ -8133,7 +8274,7 @@
       <c r="F935" s="17"/>
       <c r="H935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
       <c r="D936" s="17"/>
@@ -8141,7 +8282,7 @@
       <c r="F936" s="17"/>
       <c r="H936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
       <c r="D937" s="17"/>
@@ -8149,7 +8290,7 @@
       <c r="F937" s="17"/>
       <c r="H937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
       <c r="D938" s="17"/>
@@ -8157,7 +8298,7 @@
       <c r="F938" s="17"/>
       <c r="H938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
       <c r="D939" s="17"/>
@@ -8165,7 +8306,7 @@
       <c r="F939" s="17"/>
       <c r="H939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
       <c r="D940" s="17"/>
@@ -8173,7 +8314,7 @@
       <c r="F940" s="17"/>
       <c r="H940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
       <c r="D941" s="17"/>
@@ -8181,7 +8322,7 @@
       <c r="F941" s="17"/>
       <c r="H941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
       <c r="D942" s="17"/>
@@ -8189,7 +8330,7 @@
       <c r="F942" s="17"/>
       <c r="H942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
       <c r="D943" s="17"/>
@@ -8197,7 +8338,7 @@
       <c r="F943" s="17"/>
       <c r="H943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
       <c r="D944" s="17"/>
@@ -8205,7 +8346,7 @@
       <c r="F944" s="17"/>
       <c r="H944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
       <c r="D945" s="17"/>
@@ -8213,7 +8354,7 @@
       <c r="F945" s="17"/>
       <c r="H945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
       <c r="D946" s="17"/>
@@ -8221,7 +8362,7 @@
       <c r="F946" s="17"/>
       <c r="H946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
       <c r="D947" s="17"/>
@@ -8229,7 +8370,7 @@
       <c r="F947" s="17"/>
       <c r="H947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
       <c r="D948" s="17"/>
@@ -8237,7 +8378,7 @@
       <c r="F948" s="17"/>
       <c r="H948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
       <c r="D949" s="17"/>
@@ -8245,7 +8386,7 @@
       <c r="F949" s="17"/>
       <c r="H949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
       <c r="D950" s="17"/>
@@ -8253,7 +8394,7 @@
       <c r="F950" s="17"/>
       <c r="H950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
       <c r="D951" s="17"/>
@@ -8261,7 +8402,7 @@
       <c r="F951" s="17"/>
       <c r="H951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
       <c r="D952" s="17"/>
@@ -8269,7 +8410,7 @@
       <c r="F952" s="17"/>
       <c r="H952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
       <c r="D953" s="17"/>
@@ -8277,7 +8418,7 @@
       <c r="F953" s="17"/>
       <c r="H953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
       <c r="D954" s="17"/>
@@ -8285,7 +8426,7 @@
       <c r="F954" s="17"/>
       <c r="H954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
       <c r="D955" s="17"/>
@@ -8293,7 +8434,7 @@
       <c r="F955" s="17"/>
       <c r="H955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
       <c r="D956" s="17"/>
@@ -8301,7 +8442,7 @@
       <c r="F956" s="17"/>
       <c r="H956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
       <c r="D957" s="17"/>
@@ -8309,7 +8450,7 @@
       <c r="F957" s="17"/>
       <c r="H957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
       <c r="D958" s="17"/>
@@ -8317,7 +8458,7 @@
       <c r="F958" s="17"/>
       <c r="H958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
       <c r="D959" s="17"/>
@@ -8325,7 +8466,7 @@
       <c r="F959" s="17"/>
       <c r="H959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
       <c r="D960" s="17"/>
@@ -8333,7 +8474,7 @@
       <c r="F960" s="17"/>
       <c r="H960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
       <c r="D961" s="17"/>
@@ -8341,7 +8482,7 @@
       <c r="F961" s="17"/>
       <c r="H961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
       <c r="D962" s="17"/>
@@ -8349,7 +8490,7 @@
       <c r="F962" s="17"/>
       <c r="H962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
       <c r="D963" s="17"/>
@@ -8357,7 +8498,7 @@
       <c r="F963" s="17"/>
       <c r="H963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
       <c r="D964" s="17"/>
@@ -8365,7 +8506,7 @@
       <c r="F964" s="17"/>
       <c r="H964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
       <c r="D965" s="17"/>
@@ -8373,7 +8514,7 @@
       <c r="F965" s="17"/>
       <c r="H965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
       <c r="D966" s="17"/>
@@ -8381,7 +8522,7 @@
       <c r="F966" s="17"/>
       <c r="H966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
       <c r="D967" s="17"/>
@@ -8389,7 +8530,7 @@
       <c r="F967" s="17"/>
       <c r="H967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
       <c r="D968" s="17"/>
@@ -8397,7 +8538,7 @@
       <c r="F968" s="17"/>
       <c r="H968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
       <c r="D969" s="17"/>
@@ -8405,7 +8546,7 @@
       <c r="F969" s="17"/>
       <c r="H969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
       <c r="D970" s="17"/>
@@ -8413,7 +8554,7 @@
       <c r="F970" s="17"/>
       <c r="H970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="17"/>
       <c r="C971" s="17"/>
       <c r="D971" s="17"/>
@@ -8421,7 +8562,7 @@
       <c r="F971" s="17"/>
       <c r="H971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="17"/>
       <c r="C972" s="17"/>
       <c r="D972" s="17"/>
@@ -8429,7 +8570,7 @@
       <c r="F972" s="17"/>
       <c r="H972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="17"/>
       <c r="C973" s="17"/>
       <c r="D973" s="17"/>
@@ -8437,7 +8578,7 @@
       <c r="F973" s="17"/>
       <c r="H973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="17"/>
       <c r="C974" s="17"/>
       <c r="D974" s="17"/>
@@ -8445,7 +8586,7 @@
       <c r="F974" s="17"/>
       <c r="H974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="17"/>
       <c r="C975" s="17"/>
       <c r="D975" s="17"/>
@@ -8453,7 +8594,7 @@
       <c r="F975" s="17"/>
       <c r="H975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="17"/>
       <c r="C976" s="17"/>
       <c r="D976" s="17"/>
@@ -8461,7 +8602,7 @@
       <c r="F976" s="17"/>
       <c r="H976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="17"/>
       <c r="C977" s="17"/>
       <c r="D977" s="17"/>
@@ -8469,7 +8610,7 @@
       <c r="F977" s="17"/>
       <c r="H977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="17"/>
       <c r="C978" s="17"/>
       <c r="D978" s="17"/>
@@ -8477,7 +8618,7 @@
       <c r="F978" s="17"/>
       <c r="H978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="17"/>
       <c r="C979" s="17"/>
       <c r="D979" s="17"/>
@@ -8485,7 +8626,7 @@
       <c r="F979" s="17"/>
       <c r="H979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="17"/>
       <c r="C980" s="17"/>
       <c r="D980" s="17"/>
@@ -8493,7 +8634,7 @@
       <c r="F980" s="17"/>
       <c r="H980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="17"/>
       <c r="C981" s="17"/>
       <c r="D981" s="17"/>
@@ -8501,7 +8642,7 @@
       <c r="F981" s="17"/>
       <c r="H981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="17"/>
       <c r="C982" s="17"/>
       <c r="D982" s="17"/>
@@ -8509,7 +8650,7 @@
       <c r="F982" s="17"/>
       <c r="H982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="17"/>
       <c r="C983" s="17"/>
       <c r="D983" s="17"/>
@@ -8517,7 +8658,7 @@
       <c r="F983" s="17"/>
       <c r="H983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="17"/>
       <c r="C984" s="17"/>
       <c r="D984" s="17"/>
@@ -8525,7 +8666,7 @@
       <c r="F984" s="17"/>
       <c r="H984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="17"/>
       <c r="C985" s="17"/>
       <c r="D985" s="17"/>
@@ -8533,7 +8674,7 @@
       <c r="F985" s="17"/>
       <c r="H985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="17"/>
       <c r="C986" s="17"/>
       <c r="D986" s="17"/>
@@ -8541,7 +8682,7 @@
       <c r="F986" s="17"/>
       <c r="H986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="17"/>
       <c r="C987" s="17"/>
       <c r="D987" s="17"/>
@@ -8549,7 +8690,7 @@
       <c r="F987" s="17"/>
       <c r="H987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="17"/>
       <c r="C988" s="17"/>
       <c r="D988" s="17"/>
@@ -8557,7 +8698,7 @@
       <c r="F988" s="17"/>
       <c r="H988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="17"/>
       <c r="C989" s="17"/>
       <c r="D989" s="17"/>
@@ -8565,7 +8706,7 @@
       <c r="F989" s="17"/>
       <c r="H989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="17"/>
       <c r="C990" s="17"/>
       <c r="D990" s="17"/>
@@ -8573,7 +8714,7 @@
       <c r="F990" s="17"/>
       <c r="H990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="17"/>
       <c r="C991" s="17"/>
       <c r="D991" s="17"/>
@@ -8581,7 +8722,7 @@
       <c r="F991" s="17"/>
       <c r="H991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="17"/>
       <c r="C992" s="17"/>
       <c r="D992" s="17"/>
@@ -8589,7 +8730,7 @@
       <c r="F992" s="17"/>
       <c r="H992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="17"/>
       <c r="C993" s="17"/>
       <c r="D993" s="17"/>
@@ -8597,7 +8738,7 @@
       <c r="F993" s="17"/>
       <c r="H993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="17"/>
       <c r="C994" s="17"/>
       <c r="D994" s="17"/>
@@ -8605,7 +8746,7 @@
       <c r="F994" s="17"/>
       <c r="H994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="17"/>
       <c r="C995" s="17"/>
       <c r="D995" s="17"/>
@@ -8613,7 +8754,7 @@
       <c r="F995" s="17"/>
       <c r="H995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="17"/>
       <c r="C996" s="17"/>
       <c r="D996" s="17"/>
@@ -8621,7 +8762,7 @@
       <c r="F996" s="17"/>
       <c r="H996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="17"/>
       <c r="C997" s="17"/>
       <c r="D997" s="17"/>
@@ -8629,7 +8770,7 @@
       <c r="F997" s="17"/>
       <c r="H997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="17"/>
       <c r="C998" s="17"/>
       <c r="D998" s="17"/>
@@ -8637,7 +8778,7 @@
       <c r="F998" s="17"/>
       <c r="H998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="17"/>
       <c r="C999" s="17"/>
       <c r="D999" s="17"/>
@@ -8645,7 +8786,7 @@
       <c r="F999" s="17"/>
       <c r="H999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1000" s="17"/>
       <c r="C1000" s="17"/>
       <c r="D1000" s="17"/>
@@ -8653,7 +8794,7 @@
       <c r="F1000" s="17"/>
       <c r="H1000" s="2"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1001" s="17"/>
       <c r="C1001" s="17"/>
       <c r="D1001" s="17"/>
@@ -8661,7 +8802,15 @@
       <c r="F1001" s="17"/>
       <c r="H1001" s="2"/>
     </row>
+    <row r="1002" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="17"/>
+      <c r="E1002" s="17"/>
+      <c r="F1002" s="17"/>
+      <c r="H1002" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>